--- a/DataTable.xlsx
+++ b/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmordonez\Documents\UiPath\0006B00ENTRADASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC168C7B-652D-49F7-B02E-11636D99520F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510B82D0-A848-4221-BF85-BCE812326FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
   </bookViews>
   <sheets>
     <sheet name="NuevasFacturas" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Nº Documento</t>
   </si>
@@ -55,22 +55,19 @@
     <t>0,00 EUR</t>
   </si>
   <si>
+    <t>5.127,58 EUR</t>
+  </si>
+  <si>
+    <t>1.071,37 EUR</t>
+  </si>
+  <si>
+    <t>152,84 EUR</t>
+  </si>
+  <si>
     <t>1.110,14 EUR</t>
   </si>
   <si>
     <t>1.927,94 EUR</t>
-  </si>
-  <si>
-    <t>93,66 EUR</t>
-  </si>
-  <si>
-    <t>435,24 EUR</t>
-  </si>
-  <si>
-    <t>75,90 EUR</t>
-  </si>
-  <si>
-    <t>3.806,82 EUR</t>
   </si>
   <si>
     <t>Fecha</t>
@@ -438,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65B4905-03A8-46E1-B55F-459D338631EF}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2 A2"/>
+      <selection activeCell="C6" sqref="C6 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="78.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,52 +467,46 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>18953270</v>
+        <v>18953776</v>
       </c>
       <c r="B2" s="2">
-        <v>44385</v>
+        <v>44446</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1">
-        <v>22185782</v>
+        <v>22190127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>18953269</v>
+        <v>18953775</v>
       </c>
       <c r="B3" s="2">
-        <v>44385</v>
+        <v>44446</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
-        <v>22186811</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>18953268</v>
+        <v>18953774</v>
       </c>
       <c r="B4" s="2">
-        <v>44385</v>
+        <v>44446</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
-        <v>22186380</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>17820492</v>
+        <v>17821513</v>
       </c>
       <c r="B5" s="2">
-        <v>44385</v>
+        <v>44446</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -523,10 +514,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>17820486</v>
+        <v>17821507</v>
       </c>
       <c r="B6" s="2">
-        <v>44385</v>
+        <v>44446</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -534,69 +525,56 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>54226325</v>
+        <v>18953269</v>
       </c>
       <c r="B7" s="2">
-        <v>44384</v>
+        <v>44415</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>18952797</v>
+        <v>17821208</v>
       </c>
       <c r="B8" s="2">
-        <v>44384</v>
+        <v>44415</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>18952794</v>
+        <v>17820492</v>
       </c>
       <c r="B9" s="2">
-        <v>44384</v>
+        <v>44415</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>17820287</v>
+        <v>17820486</v>
       </c>
       <c r="B10" s="2">
-        <v>44384</v>
+        <v>44415</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>17819571</v>
-      </c>
-      <c r="B11" s="2">
-        <v>44384</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>17819565</v>
-      </c>
-      <c r="B12" s="2">
-        <v>44384</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -605,10 +583,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B63460-ECC4-4CCD-AE42-824298361DB1}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4 A4"/>
+      <selection activeCell="C27" sqref="C27 C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,10 +601,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -658,6 +636,20 @@
       </c>
       <c r="D3" s="1">
         <v>22186380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>18953777</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44386</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>22189890</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable.xlsx
+++ b/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmordonez\Documents\UiPath\0006B00ENTRADASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510B82D0-A848-4221-BF85-BCE812326FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1203CE23-1C36-473C-A977-6E7E33A235EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
   </bookViews>
   <sheets>
     <sheet name="NuevasFacturas" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Nº Documento</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>0,00 EUR</t>
+  </si>
+  <si>
+    <t>1.322,90 EUR</t>
   </si>
   <si>
     <t>5.127,58 EUR</t>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65B4905-03A8-46E1-B55F-459D338631EF}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6 C6"/>
+      <selection activeCell="A2" sqref="A2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="78.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +470,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>18953776</v>
+        <v>18953777</v>
       </c>
       <c r="B2" s="2">
         <v>44446</v>
@@ -475,13 +478,10 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
-        <v>22190127</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>18953775</v>
+        <v>18953776</v>
       </c>
       <c r="B3" s="2">
         <v>44446</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>18953774</v>
+        <v>18953775</v>
       </c>
       <c r="B4" s="2">
         <v>44446</v>
@@ -503,43 +503,43 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>17821513</v>
+        <v>18953774</v>
       </c>
       <c r="B5" s="2">
         <v>44446</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>17821507</v>
+        <v>17821974</v>
       </c>
       <c r="B6" s="2">
         <v>44446</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>18953269</v>
+        <v>17821513</v>
       </c>
       <c r="B7" s="2">
-        <v>44415</v>
+        <v>44446</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>17821208</v>
+        <v>17821507</v>
       </c>
       <c r="B8" s="2">
-        <v>44415</v>
+        <v>44446</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -547,34 +547,69 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>17820492</v>
+        <v>18953270</v>
       </c>
       <c r="B9" s="2">
         <v>44415</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>17820486</v>
+        <v>18953269</v>
       </c>
       <c r="B10" s="2">
         <v>44415</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>18953268</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44415</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>17821208</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44415</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>17820492</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44415</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>17820486</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44415</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -583,10 +618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B63460-ECC4-4CCD-AE42-824298361DB1}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27 C27"/>
+      <selection activeCell="A2" sqref="A2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,55 +636,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>18953270</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44385</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>22185782</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>18953268</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44385</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>22186380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>18953777</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44386</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>22189890</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable.xlsx
+++ b/DataTable.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmordonez\Documents\UiPath\0006B00ENTRADASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1203CE23-1C36-473C-A977-6E7E33A235EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952C55CF-22CA-49E8-B743-38ACF638B0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
   </bookViews>
   <sheets>
     <sheet name="NuevasFacturas" sheetId="3" r:id="rId1"/>
-    <sheet name="HistóricoFacturas" sheetId="4" r:id="rId2"/>
+    <sheet name="XXX" sheetId="5" r:id="rId2"/>
+    <sheet name="HistóricoFacturas" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HistóricoFacturas!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HistóricoFacturas!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>Nº Documento</t>
   </si>
@@ -55,28 +56,28 @@
     <t>0,00 EUR</t>
   </si>
   <si>
-    <t>1.322,90 EUR</t>
-  </si>
-  <si>
-    <t>5.127,58 EUR</t>
-  </si>
-  <si>
-    <t>1.071,37 EUR</t>
-  </si>
-  <si>
-    <t>152,84 EUR</t>
-  </si>
-  <si>
-    <t>1.110,14 EUR</t>
-  </si>
-  <si>
-    <t>1.927,94 EUR</t>
+    <t>435,24 EUR</t>
+  </si>
+  <si>
+    <t>75,90 EUR</t>
+  </si>
+  <si>
+    <t>3.806,82 EUR</t>
   </si>
   <si>
     <t>Fecha</t>
   </si>
   <si>
     <t>Importe</t>
+  </si>
+  <si>
+    <t>13-07-2021</t>
+  </si>
+  <si>
+    <t>3.845,24 EUR</t>
+  </si>
+  <si>
+    <t>880,90 EUR</t>
   </si>
 </sst>
 </file>
@@ -119,10 +120,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,18 +440,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65B4905-03A8-46E1-B55F-459D338631EF}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2 A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="78.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78.42578125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="78.42578125" style="1"/>
   </cols>
@@ -470,10 +472,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>18953777</v>
+        <v>18952797</v>
       </c>
       <c r="B2" s="2">
-        <v>44446</v>
+        <v>44384</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -481,10 +483,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>18953776</v>
+        <v>18952794</v>
       </c>
       <c r="B3" s="2">
-        <v>44446</v>
+        <v>44384</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -492,123 +494,35 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>18953775</v>
+        <v>17820287</v>
       </c>
       <c r="B4" s="2">
-        <v>44446</v>
+        <v>44384</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>18953774</v>
+        <v>17819571</v>
       </c>
       <c r="B5" s="2">
-        <v>44446</v>
+        <v>44384</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>17821974</v>
+        <v>17819565</v>
       </c>
       <c r="B6" s="2">
-        <v>44446</v>
+        <v>44384</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>17821513</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44446</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>17821507</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44446</v>
-      </c>
-      <c r="C8" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>18953270</v>
-      </c>
-      <c r="B9" s="2">
-        <v>44415</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>18953269</v>
-      </c>
-      <c r="B10" s="2">
-        <v>44415</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>18953268</v>
-      </c>
-      <c r="B11" s="2">
-        <v>44415</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>17821208</v>
-      </c>
-      <c r="B12" s="2">
-        <v>44415</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>17820492</v>
-      </c>
-      <c r="B13" s="2">
-        <v>44415</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>17820486</v>
-      </c>
-      <c r="B14" s="2">
-        <v>44415</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,11 +531,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB03133-3D0F-4E64-A99A-C04550B0F0C8}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>18952797</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44384</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>18952794</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44384</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>17820287</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44384</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>17819571</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44384</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>17819565</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44384</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B63460-ECC4-4CCD-AE42-824298361DB1}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2 A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,13 +632,83 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>18954563</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>22195934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>18954562</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>22195951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>18954561</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>22196020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>17823224</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>22196027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>17823219</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>22196223</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable.xlsx
+++ b/DataTable.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmordonez\Documents\UiPath\0006B00ENTRADASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952C55CF-22CA-49E8-B743-38ACF638B0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E401092A-3C35-4A2B-A1AA-EF9B95B9A93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
   </bookViews>
   <sheets>
     <sheet name="NuevasFacturas" sheetId="3" r:id="rId1"/>
-    <sheet name="XXX" sheetId="5" r:id="rId2"/>
-    <sheet name="HistóricoFacturas" sheetId="4" r:id="rId3"/>
+    <sheet name="HistóricoFacturas" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HistóricoFacturas!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HistóricoFacturas!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Nº Documento</t>
   </si>
@@ -120,11 +119,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,7 +441,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="78.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +470,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>18952797</v>
+        <v>18952794</v>
       </c>
       <c r="B2" s="2">
         <v>44384</v>
@@ -483,47 +481,39 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>18952794</v>
+        <v>17820287</v>
       </c>
       <c r="B3" s="2">
         <v>44384</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>17820287</v>
+        <v>17819571</v>
       </c>
       <c r="B4" s="2">
         <v>44384</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>17819571</v>
+        <v>17819565</v>
       </c>
       <c r="B5" s="2">
         <v>44384</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>17819565</v>
-      </c>
-      <c r="B6" s="2">
-        <v>44384</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -531,93 +521,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB03133-3D0F-4E64-A99A-C04550B0F0C8}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>18952797</v>
-      </c>
-      <c r="B2" s="3">
-        <v>44384</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>18952794</v>
-      </c>
-      <c r="B3" s="3">
-        <v>44384</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>17820287</v>
-      </c>
-      <c r="B4" s="3">
-        <v>44384</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>17819571</v>
-      </c>
-      <c r="B5" s="3">
-        <v>44384</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>17819565</v>
-      </c>
-      <c r="B6" s="3">
-        <v>44384</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B63460-ECC4-4CCD-AE42-824298361DB1}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A7" sqref="A7 A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,6 +619,20 @@
         <v>22196223</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>18952797</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44384</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>22203675</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataTable.xlsx
+++ b/DataTable.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmordonez\Documents\UiPath\0006B00ENTRADASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E401092A-3C35-4A2B-A1AA-EF9B95B9A93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A382E7-3E0D-4FAA-B740-FA2F6886898E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
   </bookViews>
   <sheets>
     <sheet name="NuevasFacturas" sheetId="3" r:id="rId1"/>
     <sheet name="HistóricoFacturas" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HistóricoFacturas!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HistóricoFacturas!$A$1:$D$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Nº Documento</t>
   </si>
@@ -440,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65B4905-03A8-46E1-B55F-459D338631EF}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2 A2"/>
     </sheetView>
   </sheetViews>
@@ -470,47 +470,45 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>18952794</v>
+        <v>17820287</v>
       </c>
       <c r="B2" s="2">
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>22206553</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>17820287</v>
+        <v>17819571</v>
       </c>
       <c r="B3" s="2">
         <v>44384</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>22206565</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>17819571</v>
+        <v>17819565</v>
       </c>
       <c r="B4" s="2">
         <v>44384</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>17819565</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44384</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
@@ -522,10 +520,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B63460-ECC4-4CCD-AE42-824298361DB1}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7 A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,11 +628,53 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>22203675</v>
+        <v>22205993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>18952794</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44384</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>22206060</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>17820287</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44384</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>22206553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>17819571</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44384</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22206565</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:D6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DataTable.xlsx
+++ b/DataTable.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmordonez\Documents\UiPath\0006B00ENTRADASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A382E7-3E0D-4FAA-B740-FA2F6886898E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704BAAF7-ACC4-4FE2-80F6-DE1D77F81A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
   </bookViews>
   <sheets>
     <sheet name="NuevasFacturas" sheetId="3" r:id="rId1"/>
     <sheet name="HistóricoFacturas" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HistóricoFacturas!$A$1:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HistóricoFacturas!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>Nº Documento</t>
   </si>
@@ -52,16 +52,16 @@
     <t>N.ControlEntrada</t>
   </si>
   <si>
+    <t>24-07-2021</t>
+  </si>
+  <si>
     <t>0,00 EUR</t>
   </si>
   <si>
-    <t>435,24 EUR</t>
-  </si>
-  <si>
-    <t>75,90 EUR</t>
-  </si>
-  <si>
-    <t>3.806,82 EUR</t>
+    <t>5.198,86 EUR</t>
+  </si>
+  <si>
+    <t>429,12 EUR</t>
   </si>
   <si>
     <t>Fecha</t>
@@ -70,13 +70,37 @@
     <t>Importe</t>
   </si>
   <si>
-    <t>13-07-2021</t>
-  </si>
-  <si>
-    <t>3.845,24 EUR</t>
-  </si>
-  <si>
-    <t>880,90 EUR</t>
+    <t>220,03 EUR</t>
+  </si>
+  <si>
+    <t>2.509,35 EUR</t>
+  </si>
+  <si>
+    <t>239,23 EUR</t>
+  </si>
+  <si>
+    <t>22-07-2021</t>
+  </si>
+  <si>
+    <t>1.970,94 EUR</t>
+  </si>
+  <si>
+    <t>1.439,07 EUR</t>
+  </si>
+  <si>
+    <t>23-07-2021</t>
+  </si>
+  <si>
+    <t>6.452,51 EUR</t>
+  </si>
+  <si>
+    <t>326,42 EUR</t>
+  </si>
+  <si>
+    <t>618,12 EUR</t>
+  </si>
+  <si>
+    <t>67,01 EUR</t>
   </si>
 </sst>
 </file>
@@ -122,7 +146,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,9 +464,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65B4905-03A8-46E1-B55F-459D338631EF}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2 A2"/>
     </sheetView>
   </sheetViews>
@@ -468,51 +494,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>17820287</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44384</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>22206553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>17819571</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44384</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>22206565</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>17819565</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44384</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -520,15 +501,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B63460-ECC4-4CCD-AE42-824298361DB1}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9 A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14 A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="20.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -537,7 +520,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -549,132 +532,314 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>18954563</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>18957241</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44398</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>22195934</v>
+        <v>22222383</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>18954562</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>18957240</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44398</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>22195951</v>
+        <v>22222401</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>18954561</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>18957239</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44398</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>22196020</v>
+        <v>22222404</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>17823224</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>17829483</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44398</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="1">
-        <v>22196027</v>
+        <v>22225160</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>17823219</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>17828681</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44398</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
-        <v>22196223</v>
+        <v>22222245</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>18952797</v>
+        <v>17828676</v>
       </c>
       <c r="B7" s="2">
-        <v>44384</v>
+        <v>44398</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
-        <v>22205993</v>
+        <v>22222310</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>18952794</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44384</v>
+        <v>18957782</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>22206060</v>
+        <v>22224141</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>17820287</v>
-      </c>
-      <c r="B9" s="2">
-        <v>44384</v>
+        <v>18957781</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>22206553</v>
+        <v>22224183</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>17819571</v>
-      </c>
-      <c r="B10" s="2">
-        <v>44384</v>
+        <v>18957780</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22224250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>18957779</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>22224323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>17829677</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>22224377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>17829672</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>22224433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>18958217</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>22227375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>18958214</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>22227501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>17830647</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1">
+        <v>22227556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>17830642</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1">
+        <v>22227589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17830366</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1">
+        <v>22227642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18958660</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>22230895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18958659</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>22230897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17831638</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1">
-        <v>22206565</v>
+      <c r="D21" s="1">
+        <v>22230898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>17831634</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>22230899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>17831295</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>22230900</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DataTable.xlsx
+++ b/DataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmordonez\Documents\UiPath\0006B00ENTRADASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704BAAF7-ACC4-4FE2-80F6-DE1D77F81A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F6A8A3-23BD-4C6B-96FA-28FE24ACE237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
   </bookViews>
   <sheets>
     <sheet name="NuevasFacturas" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="105">
   <si>
     <t>Nº Documento</t>
   </si>
@@ -52,55 +52,307 @@
     <t>N.ControlEntrada</t>
   </si>
   <si>
+    <t>0,00 EUR</t>
+  </si>
+  <si>
+    <t>32,05 EUR</t>
+  </si>
+  <si>
+    <t>144,14 EUR</t>
+  </si>
+  <si>
+    <t>532,88 EUR</t>
+  </si>
+  <si>
+    <t>137,59 EUR</t>
+  </si>
+  <si>
+    <t>60,86 EUR</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Importe</t>
+  </si>
+  <si>
+    <t>220,03 EUR</t>
+  </si>
+  <si>
+    <t>2.509,35 EUR</t>
+  </si>
+  <si>
+    <t>239,23 EUR</t>
+  </si>
+  <si>
+    <t>22-07-2021</t>
+  </si>
+  <si>
+    <t>1.970,94 EUR</t>
+  </si>
+  <si>
+    <t>1.439,07 EUR</t>
+  </si>
+  <si>
+    <t>618,12 EUR</t>
+  </si>
+  <si>
+    <t>23-07-2021</t>
+  </si>
+  <si>
+    <t>6.452,51 EUR</t>
+  </si>
+  <si>
+    <t>326,42 EUR</t>
+  </si>
+  <si>
+    <t>67,01 EUR</t>
+  </si>
+  <si>
     <t>24-07-2021</t>
   </si>
   <si>
-    <t>0,00 EUR</t>
-  </si>
-  <si>
     <t>5.198,86 EUR</t>
   </si>
   <si>
     <t>429,12 EUR</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Importe</t>
-  </si>
-  <si>
-    <t>220,03 EUR</t>
-  </si>
-  <si>
-    <t>2.509,35 EUR</t>
-  </si>
-  <si>
-    <t>239,23 EUR</t>
-  </si>
-  <si>
-    <t>22-07-2021</t>
-  </si>
-  <si>
-    <t>1.970,94 EUR</t>
-  </si>
-  <si>
-    <t>1.439,07 EUR</t>
-  </si>
-  <si>
-    <t>23-07-2021</t>
-  </si>
-  <si>
-    <t>6.452,51 EUR</t>
-  </si>
-  <si>
-    <t>326,42 EUR</t>
-  </si>
-  <si>
-    <t>618,12 EUR</t>
-  </si>
-  <si>
-    <t>67,01 EUR</t>
+    <t>27-07-2021</t>
+  </si>
+  <si>
+    <t>560,64 EUR</t>
+  </si>
+  <si>
+    <t>20.299,36 EUR</t>
+  </si>
+  <si>
+    <t>1.427,96 EUR</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>6.885,46 EUR</t>
+  </si>
+  <si>
+    <t>400,21 EUR</t>
+  </si>
+  <si>
+    <t>15.743,92 EUR</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>161,55 EUR</t>
+  </si>
+  <si>
+    <t>1.108,49 EUR</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>1.375,10 EUR</t>
+  </si>
+  <si>
+    <t>196,04 EUR</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>9.199,00 EUR</t>
+  </si>
+  <si>
+    <t>2.528,66 EUR</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>4.834,70 EUR</t>
+  </si>
+  <si>
+    <t>651,94 EUR</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>1.028,25 EUR</t>
+  </si>
+  <si>
+    <t>2.586,42 EUR</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>2.474,98 EUR</t>
+  </si>
+  <si>
+    <t>387,73 EUR</t>
+  </si>
+  <si>
+    <t>263,24 EUR</t>
+  </si>
+  <si>
+    <t>21-08-2021</t>
+  </si>
+  <si>
+    <t>2.522,47 EUR</t>
+  </si>
+  <si>
+    <t>816,03 EUR</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>2.082,82 EUR</t>
+  </si>
+  <si>
+    <t>2.159,19 EUR</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>83,24 EUR</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>12.194,34 EUR</t>
+  </si>
+  <si>
+    <t>4.699,12 EUR</t>
+  </si>
+  <si>
+    <t>467,50 EUR</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>2.501,68 EUR</t>
+  </si>
+  <si>
+    <t>2.882,99 EUR</t>
+  </si>
+  <si>
+    <t>259,92 EUR</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>6.152,65 EUR</t>
+  </si>
+  <si>
+    <t>1.230,56 EUR</t>
+  </si>
+  <si>
+    <t>28-08-2021</t>
+  </si>
+  <si>
+    <t>2.124,38 EUR</t>
+  </si>
+  <si>
+    <t>1.993,33 EUR</t>
+  </si>
+  <si>
+    <t>718,68 EUR</t>
+  </si>
+  <si>
+    <t>395,94 EUR</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>2.223,37 EUR</t>
+  </si>
+  <si>
+    <t>899,55 EUR</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>534,45 EUR</t>
+  </si>
+  <si>
+    <t>42,54 EUR</t>
+  </si>
+  <si>
+    <t>1.187,74 EUR</t>
+  </si>
+  <si>
+    <t>26,92 EUR</t>
+  </si>
+  <si>
+    <t>354,36 EUR</t>
+  </si>
+  <si>
+    <t>149,84 EUR</t>
+  </si>
+  <si>
+    <t>1.599,38 EUR</t>
+  </si>
+  <si>
+    <t>459,14 EUR</t>
+  </si>
+  <si>
+    <t>668,80 EUR</t>
+  </si>
+  <si>
+    <t>1.996,72 EUR</t>
+  </si>
+  <si>
+    <t>832,90 EUR</t>
+  </si>
+  <si>
+    <t>101,66 EUR</t>
+  </si>
+  <si>
+    <t>406,66 EUR</t>
+  </si>
+  <si>
+    <t>199,30 EUR</t>
+  </si>
+  <si>
+    <t>2.492,43 EUR</t>
+  </si>
+  <si>
+    <t>226,50 EUR</t>
+  </si>
+  <si>
+    <t>198,63 EUR</t>
+  </si>
+  <si>
+    <t>657,80 EUR</t>
+  </si>
+  <si>
+    <t>854,59 EUR</t>
+  </si>
+  <si>
+    <t>2.778,44 EUR</t>
+  </si>
+  <si>
+    <t>715,86 EUR</t>
+  </si>
+  <si>
+    <t>3.739,98 EUR</t>
+  </si>
+  <si>
+    <t>274,79 EUR</t>
+  </si>
+  <si>
+    <t>452,03 EUR</t>
   </si>
 </sst>
 </file>
@@ -143,9 +395,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65B4905-03A8-46E1-B55F-459D338631EF}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2 A2"/>
@@ -494,6 +747,48 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -501,16 +796,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B63460-ECC4-4CCD-AE42-824298361DB1}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14 A14"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108 A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="3" customWidth="1"/>
     <col min="3" max="4" width="20.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="11.42578125" style="1"/>
@@ -520,11 +815,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -534,11 +829,11 @@
       <c r="A2" s="1">
         <v>18957241</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>44398</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
         <v>22222383</v>
@@ -548,11 +843,11 @@
       <c r="A3" s="1">
         <v>18957240</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>44398</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>22222401</v>
@@ -562,11 +857,11 @@
       <c r="A4" s="1">
         <v>18957239</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>44398</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>22222404</v>
@@ -576,11 +871,11 @@
       <c r="A5" s="1">
         <v>17829483</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>44398</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>22225160</v>
@@ -590,11 +885,11 @@
       <c r="A6" s="1">
         <v>17828681</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>44398</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
         <v>22222245</v>
@@ -604,11 +899,11 @@
       <c r="A7" s="1">
         <v>17828676</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>44398</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>22222310</v>
@@ -618,11 +913,11 @@
       <c r="A8" s="1">
         <v>18957782</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
         <v>22224141</v>
@@ -632,11 +927,11 @@
       <c r="A9" s="1">
         <v>18957781</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
         <v>22224183</v>
@@ -646,11 +941,11 @@
       <c r="A10" s="1">
         <v>18957780</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
         <v>22224250</v>
@@ -660,11 +955,11 @@
       <c r="A11" s="1">
         <v>18957779</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
         <v>22224323</v>
@@ -674,11 +969,11 @@
       <c r="A12" s="1">
         <v>17829677</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
         <v>22224377</v>
@@ -688,11 +983,11 @@
       <c r="A13" s="1">
         <v>17829672</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
         <v>22224433</v>
@@ -700,147 +995,1870 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>18958217</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>17830366</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1">
-        <v>22227375</v>
+        <v>22227642</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>18958214</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>18958217</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>22227501</v>
+        <v>22227375</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>17830647</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>18958214</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>22227556</v>
+        <v>22227501</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>17830642</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>17830647</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1">
-        <v>22227589</v>
+        <v>22227556</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17830366</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>17830642</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1">
-        <v>22227642</v>
+        <v>22227589</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18958660</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>4</v>
+        <v>17831295</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1">
-        <v>22230895</v>
+        <v>22230900</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>18958659</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
+        <v>18958660</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
-        <v>22230897</v>
+        <v>22230895</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>17831638</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>4</v>
+        <v>18958659</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>22230898</v>
+        <v>22230897</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>17831634</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>4</v>
+        <v>17831638</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1">
-        <v>22230899</v>
+        <v>22230898</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>17831295</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>17831634</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1">
-        <v>22230900</v>
+        <v>22230899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>18959077</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>22240750</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>18959074</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>22240773</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>17833216</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1">
+        <v>22240860</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>17832596</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1">
+        <v>22240981</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>17832590</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="1">
+        <v>22241055</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>18959476</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>22240563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>18959475</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>22240623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>17833437</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="1">
+        <v>22240680</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>17833431</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1">
+        <v>22240702</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>17834233</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="1">
+        <v>22244000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>17834373</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="1">
+        <v>22243980</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>17834368</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="1">
+        <v>22243985</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>18960296</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1">
+        <v>22247894</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>18960295</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1">
+        <v>22247904</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>17835281</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="1">
+        <v>22248030</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>17835147</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="1">
+        <v>22248082</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>18964828</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1">
+        <v>22288890</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>18964827</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1">
+        <v>22289080</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>18964826</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1">
+        <v>22289183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>17845401</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="1">
+        <v>22289201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>17845396</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="1">
+        <v>22289261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>18964830</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1">
+        <v>22288681</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>18965173</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1">
+        <v>22292786</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>17846158</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="1">
+        <v>22292820</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>17846152</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="1">
+        <v>22292890</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>18965590</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1">
+        <v>22296441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>18965589</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1">
+        <v>22296468</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>18965586</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1">
+        <v>22296520</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>17847070</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="1">
+        <v>22296539</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>17847064</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="1">
+        <v>22296583</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>18965941</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1">
+        <v>22299810</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>18965938</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1">
+        <v>22299815</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>17847862</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="1">
+        <v>22299850</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>17847857</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="1">
+        <v>22299882</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>17847616</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="1">
+        <v>22299913</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>17848809</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="1">
+        <v>22302380</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>17848804</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="1">
+        <v>22302420</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>18966468</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1">
+        <v>22308112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>18966467</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1">
+        <v>22308117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>18966466</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="1">
+        <v>22308141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>18966465</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="1">
+        <v>22308183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>18966463</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1">
+        <v>22308193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>18966462</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1">
+        <v>22308221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>17849346</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="1">
+        <v>22308310</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>17849340</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="1">
+        <v>22308371</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>17849234</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="1">
+        <v>22308391</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>18966886</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="1">
+        <v>22309800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>18966885</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="1">
+        <v>22309803</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>17850319</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" s="1">
+        <v>22309827</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>17850313</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" s="1">
+        <v>22309867</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>17850057</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="1">
+        <v>22309940</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>18967238</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="1">
+        <v>22313279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>18967237</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="1">
+        <v>22313320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>18967236</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="1">
+        <v>22313364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>18967235</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="1">
+        <v>22313371</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>17851198</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79" s="1">
+        <v>22313399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>17851193</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" s="1">
+        <v>22313431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>17850944</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="1">
+        <v>22313451</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>18967544</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1">
+        <v>22316060</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>17852018</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" s="1">
+        <v>22316064</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>17852013</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" s="1">
+        <v>22316081</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>18967885</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="1">
+        <v>22318929</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>17852898</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" s="1">
+        <v>22318970</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>17852893</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D87" s="1">
+        <v>22318981</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>17852574</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D88" s="1">
+        <v>22319024</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>17852364</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" s="1">
+        <v>22319060</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>18968150</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="1">
+        <v>22323143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>18968149</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="1">
+        <v>22323155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>18968148</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="1">
+        <v>22323224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>18968147</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="1">
+        <v>22323260</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>18968146</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="1">
+        <v>22323264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>17853673</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D95" s="1">
+        <v>22323310</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>17853668</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D96" s="1">
+        <v>22323333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>17853341</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97" s="1">
+        <v>22323343</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>17852016</v>
+      </c>
+      <c r="B98" s="3">
+        <v>44435</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D98" s="1">
+        <v>22316071</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>17852021</v>
+      </c>
+      <c r="B99" s="3">
+        <v>44435</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D99" s="1">
+        <v>22316077</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>18967550</v>
+      </c>
+      <c r="B100" s="3">
+        <v>44435</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="1">
+        <v>22316087</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>18967551</v>
+      </c>
+      <c r="B101" s="3">
+        <v>44435</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1">
+        <v>22316085</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>18967552</v>
+      </c>
+      <c r="B102" s="3">
+        <v>44435</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1">
+        <v>22316080</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>17852896</v>
+      </c>
+      <c r="B103" s="3">
+        <v>44436</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D103" s="1">
+        <v>22319089</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>17852901</v>
+      </c>
+      <c r="B104" s="3">
+        <v>44436</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D104" s="1">
+        <v>22319115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>18967887</v>
+      </c>
+      <c r="B105" s="3">
+        <v>44436</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="1">
+        <v>22319119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>18967888</v>
+      </c>
+      <c r="B106" s="3">
+        <v>44436</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="1">
+        <v>22319083</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>18967889</v>
+      </c>
+      <c r="B107" s="3">
+        <v>44436</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="1">
+        <v>22319111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>18968153</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="1">
+        <v>22323980</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>18968152</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="1">
+        <v>22324022</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>17853676</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D110" s="1">
+        <v>22324044</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>17853671</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D111" s="1">
+        <v>22324065</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>17853387</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D112" s="1">
+        <v>22324103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>18968536</v>
+      </c>
+      <c r="B113" s="3">
+        <v>44205</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="1">
+        <v>22327592</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>18968535</v>
+      </c>
+      <c r="B114" s="3">
+        <v>44205</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="1">
+        <v>22327614</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>17854707</v>
+      </c>
+      <c r="B115" s="3">
+        <v>44205</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D115" s="1">
+        <v>22327661</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>17854702</v>
+      </c>
+      <c r="B116" s="3">
+        <v>44205</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D116" s="1">
+        <v>22327701</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>17854253</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D117" s="1">
+        <v>22327763</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>18968539</v>
+      </c>
+      <c r="B118" s="3">
+        <v>44205</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="1">
+        <v>22327830</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>18968538</v>
+      </c>
+      <c r="B119" s="3">
+        <v>44205</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="1">
+        <v>22327850</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>17854705</v>
+      </c>
+      <c r="B120" s="3">
+        <v>44205</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D120" s="1">
+        <v>22327853</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>17854487</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D121" s="1">
+        <v>22327861</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>17854256</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D122" s="1">
+        <v>22327911</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>18968803</v>
+      </c>
+      <c r="B123" s="3">
+        <v>44236</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="1">
+        <v>22330700</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>17855298</v>
+      </c>
+      <c r="B124" s="3">
+        <v>44236</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124" s="1">
+        <v>22330701</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>17855292</v>
+      </c>
+      <c r="B125" s="3">
+        <v>44236</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D125" s="1">
+        <v>22330702</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>17855130</v>
+      </c>
+      <c r="B126" s="3">
+        <v>44205</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D126" s="1">
+        <v>22330740</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>18968810</v>
+      </c>
+      <c r="B127" s="3">
+        <v>44236</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" s="1">
+        <v>22330747</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>18968809</v>
+      </c>
+      <c r="B128" s="3">
+        <v>44236</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="1">
+        <v>22330748</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>18968804</v>
+      </c>
+      <c r="B129" s="3">
+        <v>44236</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" s="1">
+        <v>22330749</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>17855301</v>
+      </c>
+      <c r="B130" s="3">
+        <v>44236</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="1">
+        <v>22330750</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>17855295</v>
+      </c>
+      <c r="B131" s="3">
+        <v>44236</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="1">
+        <v>22330751</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>17855071</v>
+      </c>
+      <c r="B132" s="3">
+        <v>44205</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D132" s="1">
+        <v>22330770</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>17856283</v>
+      </c>
+      <c r="B133" s="3">
+        <v>44264</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D133" s="1">
+        <v>22334500</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>17856288</v>
+      </c>
+      <c r="B134" s="3">
+        <v>44264</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D134" s="1">
+        <v>22334502</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>18969206</v>
+      </c>
+      <c r="B135" s="3">
+        <v>44264</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" s="1">
+        <v>22334503</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>18969207</v>
+      </c>
+      <c r="B136" s="3">
+        <v>44264</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="1">
+        <v>22334520</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>18969208</v>
+      </c>
+      <c r="B137" s="3">
+        <v>44264</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="1">
+        <v>22334522</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>17856002</v>
+      </c>
+      <c r="B138" s="3">
+        <v>44236</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D138" s="1">
+        <v>22334540</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>18969213</v>
+      </c>
+      <c r="B139" s="3">
+        <v>44264</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" s="1">
+        <v>22334546</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>17856291</v>
+      </c>
+      <c r="B140" s="3">
+        <v>44264</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="1">
+        <v>22334548</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>17856286</v>
+      </c>
+      <c r="B141" s="3">
+        <v>44264</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="1">
+        <v>22334560</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>17857155</v>
+      </c>
+      <c r="B142" s="3">
+        <v>44295</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D142" s="1">
+        <v>22337783</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>17857148</v>
+      </c>
+      <c r="B143" s="3">
+        <v>44295</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D143" s="1">
+        <v>22337812</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>17856896</v>
+      </c>
+      <c r="B144" s="3">
+        <v>44264</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D144" s="1">
+        <v>22337870</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>18969578</v>
+      </c>
+      <c r="B145" s="3">
+        <v>44295</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" s="1">
+        <v>22337913</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>17857151</v>
+      </c>
+      <c r="B146" s="3">
+        <v>44295</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" s="1">
+        <v>22337930</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DataTable.xlsx
+++ b/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSCC\Documents\UiPath\EntradasFacturasET2000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05C3D19-1A08-456F-A2B4-4FA96676CFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4CD811-26BE-4DE6-B9D8-E0F9DD014458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="472">
   <si>
     <t>Nº Documento</t>
   </si>
@@ -1442,6 +1442,18 @@
   </si>
   <si>
     <t>461,11 EUR</t>
+  </si>
+  <si>
+    <t>  15-03-2022</t>
+  </si>
+  <si>
+    <t>  1.124,74 EUR</t>
+  </si>
+  <si>
+    <t>  134,66 EUR</t>
+  </si>
+  <si>
+    <t>  277,68 EUR</t>
   </si>
 </sst>
 </file>
@@ -1815,7 +1827,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2 A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="78.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1902,9 +1914,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B63460-ECC4-4CCD-AE42-824298361DB1}">
-  <dimension ref="A1:D882"/>
+  <dimension ref="A1:D885"/>
   <sheetViews>
-    <sheetView topLeftCell="A847" workbookViewId="0">
+    <sheetView topLeftCell="A853" workbookViewId="0">
       <selection activeCell="A879" sqref="A879 A879"/>
     </sheetView>
   </sheetViews>
@@ -13993,6 +14005,48 @@
       </c>
       <c r="D882" s="1">
         <v>23069507</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A883" s="1">
+        <v>17972111</v>
+      </c>
+      <c r="B883" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C883" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D883" s="1">
+        <v>23073592</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A884" s="1">
+        <v>17972052</v>
+      </c>
+      <c r="B884" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C884" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D884" s="1">
+        <v>23073801</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A885" s="1">
+        <v>17972062</v>
+      </c>
+      <c r="B885" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C885" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D885" s="1">
+        <v>23074415</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable.xlsx
+++ b/DataTable.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSCC\Documents\UiPath\EntradasFacturasET2000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4CD811-26BE-4DE6-B9D8-E0F9DD014458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0833A60B-F4FE-42C9-9566-AF78AE4E83A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{2C7087A6-646F-4CCA-9F67-ECAD8A261667}"/>
   </bookViews>
   <sheets>
     <sheet name="NuevasFacturas" sheetId="3" r:id="rId1"/>
     <sheet name="HistóricoFacturas" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HistóricoFacturas!$A$1:$D$629</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HistóricoFacturas!$A$1:$D$997</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="562">
   <si>
     <t>Nº Documento</t>
   </si>
@@ -52,1398 +52,1404 @@
     <t>N.ControlEntrada</t>
   </si>
   <si>
+    <t>30-03-2022</t>
+  </si>
+  <si>
+    <t>0,00 EUR</t>
+  </si>
+  <si>
+    <t>29-03-2022</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Importe</t>
+  </si>
+  <si>
+    <t>2.260,31 EUR</t>
+  </si>
+  <si>
+    <t>727,89 EUR</t>
+  </si>
+  <si>
+    <t>155,49 EUR</t>
+  </si>
+  <si>
+    <t>159,17 EUR</t>
+  </si>
+  <si>
+    <t>2.152,77 EUR</t>
+  </si>
+  <si>
+    <t>1.644,28 EUR</t>
+  </si>
+  <si>
+    <t>102,51 EUR</t>
+  </si>
+  <si>
+    <t>749,40 EUR</t>
+  </si>
+  <si>
+    <t>29,30 EUR</t>
+  </si>
+  <si>
+    <t>161,90 EUR</t>
+  </si>
+  <si>
+    <t>1.629,49 EUR</t>
+  </si>
+  <si>
+    <t>493,71 EUR</t>
+  </si>
+  <si>
+    <t>486,16 EUR</t>
+  </si>
+  <si>
+    <t>29,06 EUR</t>
+  </si>
+  <si>
+    <t>158,05 EUR</t>
+  </si>
+  <si>
+    <t>34,47 EUR</t>
+  </si>
+  <si>
+    <t>71,68 EUR</t>
+  </si>
+  <si>
+    <t>771,69 EUR</t>
+  </si>
+  <si>
+    <t>3.453,40 EUR</t>
+  </si>
+  <si>
+    <t>237,60 EUR</t>
+  </si>
+  <si>
+    <t>59,29 EUR</t>
+  </si>
+  <si>
+    <t>2.795,89 EUR</t>
+  </si>
+  <si>
+    <t>187,52 EUR</t>
+  </si>
+  <si>
+    <t>694,32 EUR</t>
+  </si>
+  <si>
+    <t>1.537,91 EUR</t>
+  </si>
+  <si>
+    <t>712,37 EUR</t>
+  </si>
+  <si>
+    <t>26,47 EUR</t>
+  </si>
+  <si>
+    <t>6,11 EUR</t>
+  </si>
+  <si>
+    <t>6.940,15 EUR</t>
+  </si>
+  <si>
+    <t>991,55 EUR</t>
+  </si>
+  <si>
+    <t>171,69 EUR</t>
+  </si>
+  <si>
+    <t>66,28 EUR</t>
+  </si>
+  <si>
+    <t>39,82 EUR</t>
+  </si>
+  <si>
+    <t>1.022,16 EUR</t>
+  </si>
+  <si>
+    <t>2.087,03 EUR</t>
+  </si>
+  <si>
+    <t>607,70 EUR</t>
+  </si>
+  <si>
+    <t>316,10 EUR</t>
+  </si>
+  <si>
+    <t>252,54 EUR</t>
+  </si>
+  <si>
+    <t>410,93 EUR</t>
+  </si>
+  <si>
+    <t>1.367,80 EUR</t>
+  </si>
+  <si>
+    <t>6.667,88 EUR</t>
+  </si>
+  <si>
+    <t>186,47 EUR</t>
+  </si>
+  <si>
+    <t>254,50 EUR</t>
+  </si>
+  <si>
+    <t>253,49 EUR</t>
+  </si>
+  <si>
+    <t>87,83 EUR</t>
+  </si>
+  <si>
+    <t>62,57 EUR</t>
+  </si>
+  <si>
+    <t>693,76 EUR</t>
+  </si>
+  <si>
+    <t>569,84 EUR</t>
+  </si>
+  <si>
+    <t>387,14 EUR</t>
+  </si>
+  <si>
+    <t>31,61 EUR</t>
+  </si>
+  <si>
+    <t>13.907,56 EUR</t>
+  </si>
+  <si>
+    <t>1.166,80 EUR</t>
+  </si>
+  <si>
+    <t>12.458,75 EUR</t>
+  </si>
+  <si>
+    <t>243,08 EUR</t>
+  </si>
+  <si>
+    <t>1.406,90 EUR</t>
+  </si>
+  <si>
+    <t>42,49 EUR</t>
+  </si>
+  <si>
+    <t>452,33 EUR</t>
+  </si>
+  <si>
+    <t>3,70 EUR</t>
+  </si>
+  <si>
+    <t>1.984,16 EUR</t>
+  </si>
+  <si>
+    <t>1.573,06 EUR</t>
+  </si>
+  <si>
+    <t>5.361,20 EUR</t>
+  </si>
+  <si>
+    <t>15,72 EUR</t>
+  </si>
+  <si>
+    <t>41,44 EUR</t>
+  </si>
+  <si>
+    <t>1.178,22 EUR</t>
+  </si>
+  <si>
+    <t>117,09 EUR</t>
+  </si>
+  <si>
+    <t>56,88 EUR</t>
+  </si>
+  <si>
+    <t>7.190,61 EUR</t>
+  </si>
+  <si>
+    <t>172,79 EUR</t>
+  </si>
+  <si>
+    <t>2,94 EUR</t>
+  </si>
+  <si>
+    <t>500,68 EUR</t>
+  </si>
+  <si>
+    <t>4.769,77 EUR</t>
+  </si>
+  <si>
+    <t>1.227,64 EUR</t>
+  </si>
+  <si>
+    <t>94,86 EUR</t>
+  </si>
+  <si>
+    <t>941,60 EUR</t>
+  </si>
+  <si>
+    <t>1.615,91 EUR</t>
+  </si>
+  <si>
+    <t>387,53 EUR</t>
+  </si>
+  <si>
+    <t>420,42 EUR</t>
+  </si>
+  <si>
+    <t>1.049,35 EUR</t>
+  </si>
+  <si>
+    <t>139,48 EUR</t>
+  </si>
+  <si>
+    <t>48,31 EUR</t>
+  </si>
+  <si>
+    <t>681,02 EUR</t>
+  </si>
+  <si>
+    <t>1.646,08 EUR</t>
+  </si>
+  <si>
+    <t>1,26 EUR</t>
+  </si>
+  <si>
+    <t>1.837,47 EUR</t>
+  </si>
+  <si>
+    <t>462,41 EUR</t>
+  </si>
+  <si>
+    <t>1.393,63 EUR</t>
+  </si>
+  <si>
+    <t>4.210,26 EUR</t>
+  </si>
+  <si>
+    <t>430,32 EUR</t>
+  </si>
+  <si>
+    <t>172,01 EUR</t>
+  </si>
+  <si>
+    <t>1.000,22 EUR</t>
+  </si>
+  <si>
+    <t>3.239,36 EUR</t>
+  </si>
+  <si>
+    <t>1.589,28 EUR</t>
+  </si>
+  <si>
+    <t>290,62 EUR</t>
+  </si>
+  <si>
+    <t>68,80 EUR</t>
+  </si>
+  <si>
+    <t>83,40 EUR</t>
+  </si>
+  <si>
+    <t>646,76 EUR</t>
+  </si>
+  <si>
+    <t>108,97 EUR</t>
+  </si>
+  <si>
+    <t>345,81 EUR</t>
+  </si>
+  <si>
+    <t>22,70 EUR</t>
+  </si>
+  <si>
+    <t>1.121,81 EUR</t>
+  </si>
+  <si>
+    <t>564,56 EUR</t>
+  </si>
+  <si>
+    <t>2.307,53 EUR</t>
+  </si>
+  <si>
+    <t>537,95 EUR</t>
+  </si>
+  <si>
+    <t>1.078,77 EUR</t>
+  </si>
+  <si>
+    <t>666,93 EUR</t>
+  </si>
+  <si>
+    <t>89,31 EUR</t>
+  </si>
+  <si>
+    <t>1.896,20 EUR</t>
+  </si>
+  <si>
+    <t>468,59 EUR</t>
+  </si>
+  <si>
+    <t>422,90 EUR</t>
+  </si>
+  <si>
+    <t>37,46 EUR</t>
+  </si>
+  <si>
+    <t>240,78 EUR</t>
+  </si>
+  <si>
+    <t>5.124,02 EUR</t>
+  </si>
+  <si>
+    <t>785,01 EUR</t>
+  </si>
+  <si>
+    <t>20,38 EUR</t>
+  </si>
+  <si>
+    <t>128,23 EUR</t>
+  </si>
+  <si>
+    <t>829,86 EUR</t>
+  </si>
+  <si>
+    <t>440,80 EUR</t>
+  </si>
+  <si>
+    <t>673,42 EUR</t>
+  </si>
+  <si>
+    <t>3.013,38 EUR</t>
+  </si>
+  <si>
+    <t>693,18 EUR</t>
+  </si>
+  <si>
+    <t>2.940,97 EUR</t>
+  </si>
+  <si>
+    <t>4.528,06 EUR</t>
+  </si>
+  <si>
+    <t>1.161,39 EUR</t>
+  </si>
+  <si>
+    <t>778,34 EUR</t>
+  </si>
+  <si>
+    <t>165,08 EUR</t>
+  </si>
+  <si>
+    <t>42,36 EUR</t>
+  </si>
+  <si>
+    <t>1.131,19 EUR</t>
+  </si>
+  <si>
+    <t>756,02 EUR</t>
+  </si>
+  <si>
+    <t>1.073,65 EUR</t>
+  </si>
+  <si>
+    <t>1.598,47 EUR</t>
+  </si>
+  <si>
+    <t>1.168,28 EUR</t>
+  </si>
+  <si>
+    <t>445,39 EUR</t>
+  </si>
+  <si>
+    <t>1.239,59 EUR</t>
+  </si>
+  <si>
+    <t>937,76 EUR</t>
+  </si>
+  <si>
+    <t>331,79 EUR</t>
+  </si>
+  <si>
+    <t>2.526,79 EUR</t>
+  </si>
+  <si>
+    <t>254,67 EUR</t>
+  </si>
+  <si>
+    <t>46,70 EUR</t>
+  </si>
+  <si>
+    <t>1.571,88 EUR</t>
+  </si>
+  <si>
+    <t>1.316,69 EUR</t>
+  </si>
+  <si>
+    <t>1.408,48 EUR</t>
+  </si>
+  <si>
+    <t>92,00 EUR</t>
+  </si>
+  <si>
+    <t>1.548,80 EUR</t>
+  </si>
+  <si>
+    <t>189,07 EUR</t>
+  </si>
+  <si>
+    <t>6.267,66 EUR</t>
+  </si>
+  <si>
+    <t>479,16 EUR</t>
+  </si>
+  <si>
+    <t>5.209,29 EUR</t>
+  </si>
+  <si>
+    <t>1.003,69 EUR</t>
+  </si>
+  <si>
+    <t>129,71 EUR</t>
+  </si>
+  <si>
+    <t>1.222,01 EUR</t>
+  </si>
+  <si>
+    <t>425,97 EUR</t>
+  </si>
+  <si>
+    <t>6.908,16 EUR</t>
+  </si>
+  <si>
+    <t>1.139,87 EUR</t>
+  </si>
+  <si>
+    <t>367,88 EUR</t>
+  </si>
+  <si>
+    <t>221,84 EUR</t>
+  </si>
+  <si>
+    <t>363,46 EUR</t>
+  </si>
+  <si>
+    <t>696,30 EUR</t>
+  </si>
+  <si>
+    <t>50,55 EUR</t>
+  </si>
+  <si>
+    <t>29,48 EUR</t>
+  </si>
+  <si>
+    <t>80,41 EUR</t>
+  </si>
+  <si>
+    <t>6.889,96 EUR</t>
+  </si>
+  <si>
+    <t>1.113,43 EUR</t>
+  </si>
+  <si>
+    <t>503,14 EUR</t>
+  </si>
+  <si>
+    <t>36,16 EUR</t>
+  </si>
+  <si>
+    <t>682,15 EUR</t>
+  </si>
+  <si>
+    <t>486,50 EUR</t>
+  </si>
+  <si>
+    <t>2.861,04 EUR</t>
+  </si>
+  <si>
+    <t>267,79 EUR</t>
+  </si>
+  <si>
+    <t>1.343,43 EUR</t>
+  </si>
+  <si>
+    <t>2.521,57 EUR</t>
+  </si>
+  <si>
+    <t>329,08 EUR</t>
+  </si>
+  <si>
+    <t>80,26 EUR</t>
+  </si>
+  <si>
+    <t>9,07 EUR</t>
+  </si>
+  <si>
+    <t>52,11 EUR</t>
+  </si>
+  <si>
+    <t>197,79 EUR</t>
+  </si>
+  <si>
+    <t>561,70 EUR</t>
+  </si>
+  <si>
+    <t>632,96 EUR</t>
+  </si>
+  <si>
+    <t>449,90 EUR</t>
+  </si>
+  <si>
+    <t>125,78 EUR</t>
+  </si>
+  <si>
+    <t>2.046,74 EUR</t>
+  </si>
+  <si>
+    <t>100,80 EUR</t>
+  </si>
+  <si>
+    <t>733,22 EUR</t>
+  </si>
+  <si>
+    <t>1.869,13 EUR</t>
+  </si>
+  <si>
+    <t>7.888,48 EUR</t>
+  </si>
+  <si>
+    <t>1.892,65 EUR</t>
+  </si>
+  <si>
+    <t>9,86 EUR</t>
+  </si>
+  <si>
+    <t>1.036,73 EUR</t>
+  </si>
+  <si>
+    <t>167,72 EUR</t>
+  </si>
+  <si>
+    <t>62,82 EUR</t>
+  </si>
+  <si>
+    <t>5.922,13 EUR</t>
+  </si>
+  <si>
+    <t>1.967,49 EUR</t>
+  </si>
+  <si>
+    <t>236,64 EUR</t>
+  </si>
+  <si>
+    <t>1.067,00 EUR</t>
+  </si>
+  <si>
+    <t>220,40 EUR</t>
+  </si>
+  <si>
+    <t>448,99 EUR</t>
+  </si>
+  <si>
+    <t>17,95 EUR</t>
+  </si>
+  <si>
+    <t>311,20 EUR</t>
+  </si>
+  <si>
+    <t>3.623,71 EUR</t>
+  </si>
+  <si>
+    <t>1.660,23 EUR</t>
+  </si>
+  <si>
+    <t>7.575,44 EUR</t>
+  </si>
+  <si>
+    <t>777,86 EUR</t>
+  </si>
+  <si>
+    <t>819,49 EUR</t>
+  </si>
+  <si>
+    <t>616,17 EUR</t>
+  </si>
+  <si>
+    <t>2.890,27 EUR</t>
+  </si>
+  <si>
+    <t>1.701,94 EUR</t>
+  </si>
+  <si>
+    <t>504,86 EUR</t>
+  </si>
+  <si>
+    <t>332,83 EUR</t>
+  </si>
+  <si>
+    <t>649,16 EUR</t>
+  </si>
+  <si>
+    <t>6.473,99 EUR</t>
+  </si>
+  <si>
+    <t>4.082,28 EUR</t>
+  </si>
+  <si>
+    <t>1.434,86 EUR</t>
+  </si>
+  <si>
+    <t>677,68 EUR</t>
+  </si>
+  <si>
+    <t>422,93 EUR</t>
+  </si>
+  <si>
+    <t>1.189,62 EUR</t>
+  </si>
+  <si>
+    <t>491,20 EUR</t>
+  </si>
+  <si>
+    <t>242,83 EUR</t>
+  </si>
+  <si>
+    <t>1.362,98 EUR</t>
+  </si>
+  <si>
+    <t>27,75 EUR</t>
+  </si>
+  <si>
+    <t>4.592,57 EUR</t>
+  </si>
+  <si>
+    <t>1.611,15 EUR</t>
+  </si>
+  <si>
+    <t>128,88 EUR</t>
+  </si>
+  <si>
+    <t>342,94 EUR</t>
+  </si>
+  <si>
+    <t>4.141,26 EUR</t>
+  </si>
+  <si>
+    <t>155,40 EUR</t>
+  </si>
+  <si>
+    <t>729,64 EUR</t>
+  </si>
+  <si>
+    <t>1.034,36 EUR</t>
+  </si>
+  <si>
+    <t>1.181,00 EUR</t>
+  </si>
+  <si>
+    <t>4.952,43 EUR</t>
+  </si>
+  <si>
+    <t>462,67 EUR</t>
+  </si>
+  <si>
+    <t>251,13 EUR</t>
+  </si>
+  <si>
+    <t>91,71 EUR</t>
+  </si>
+  <si>
+    <t>102,49 EUR</t>
+  </si>
+  <si>
+    <t>241,32 EUR</t>
+  </si>
+  <si>
+    <t>260,92 EUR</t>
+  </si>
+  <si>
+    <t>90,69 EUR</t>
+  </si>
+  <si>
+    <t>579,11 EUR</t>
+  </si>
+  <si>
+    <t>15-02-2022</t>
+  </si>
+  <si>
+    <t>8.735,57 EUR</t>
+  </si>
+  <si>
+    <t>1.005,03 EUR</t>
+  </si>
+  <si>
+    <t>13,14 EUR</t>
+  </si>
+  <si>
+    <t>885,26 EUR</t>
+  </si>
+  <si>
+    <t>14-02-2022</t>
+  </si>
+  <si>
+    <t>2.216,78 EUR</t>
+  </si>
+  <si>
+    <t>541,86 EUR</t>
+  </si>
+  <si>
+    <t>737,77 EUR</t>
+  </si>
+  <si>
+    <t>101,78 EUR</t>
+  </si>
+  <si>
+    <t>575,98 EUR</t>
+  </si>
+  <si>
+    <t>295,98 EUR</t>
+  </si>
+  <si>
+    <t>16-02-2022</t>
+  </si>
+  <si>
+    <t>2.178,63 EUR</t>
+  </si>
+  <si>
+    <t>870,00 EUR</t>
+  </si>
+  <si>
+    <t>655,63 EUR</t>
+  </si>
+  <si>
+    <t>26,51 EUR</t>
+  </si>
+  <si>
+    <t>225,34 EUR</t>
+  </si>
+  <si>
+    <t>484,48 EUR</t>
+  </si>
+  <si>
+    <t>121,33 EUR</t>
+  </si>
+  <si>
+    <t>154,07 EUR</t>
+  </si>
+  <si>
+    <t>596,52 EUR</t>
+  </si>
+  <si>
+    <t>777,24 EUR</t>
+  </si>
+  <si>
+    <t>17-02-2022</t>
+  </si>
+  <si>
+    <t>2.220,74 EUR</t>
+  </si>
+  <si>
+    <t>3.016,27 EUR</t>
+  </si>
+  <si>
+    <t>718,19 EUR</t>
+  </si>
+  <si>
+    <t>670,32 EUR</t>
+  </si>
+  <si>
+    <t>106,80 EUR</t>
+  </si>
+  <si>
+    <t>2.088,07 EUR</t>
+  </si>
+  <si>
+    <t>812,20 EUR</t>
+  </si>
+  <si>
+    <t>172,86 EUR</t>
+  </si>
+  <si>
+    <t>183,33 EUR</t>
+  </si>
+  <si>
+    <t>3.401,90 EUR</t>
+  </si>
+  <si>
+    <t>693,56 EUR</t>
+  </si>
+  <si>
+    <t>78,47 EUR</t>
+  </si>
+  <si>
+    <t>3.489,64 EUR</t>
+  </si>
+  <si>
+    <t>724,16 EUR</t>
+  </si>
+  <si>
+    <t>18-02-2022</t>
+  </si>
+  <si>
+    <t>1.239,91 EUR</t>
+  </si>
+  <si>
+    <t>246,41 EUR</t>
+  </si>
+  <si>
+    <t>260,53 EUR</t>
+  </si>
+  <si>
+    <t>472,58 EUR</t>
+  </si>
+  <si>
+    <t>393,72 EUR</t>
+  </si>
+  <si>
+    <t>173,88 EUR</t>
+  </si>
+  <si>
+    <t>1.071,59 EUR</t>
+  </si>
+  <si>
+    <t>517,22 EUR</t>
+  </si>
+  <si>
+    <t>1.021,22 EUR</t>
+  </si>
+  <si>
+    <t>39,41 EUR</t>
+  </si>
+  <si>
+    <t>9,75 EUR</t>
+  </si>
+  <si>
+    <t>19-02-2022</t>
+  </si>
+  <si>
+    <t>17.067,34 EUR</t>
+  </si>
+  <si>
+    <t>952,50 EUR</t>
+  </si>
+  <si>
+    <t>0,41 EUR</t>
+  </si>
+  <si>
+    <t>1.369,33 EUR</t>
+  </si>
+  <si>
+    <t>1.513,16 EUR</t>
+  </si>
+  <si>
+    <t>858,18 EUR</t>
+  </si>
+  <si>
+    <t>297,94 EUR</t>
+  </si>
+  <si>
+    <t>183,74 EUR</t>
+  </si>
+  <si>
+    <t>2.297,85 EUR</t>
+  </si>
+  <si>
+    <t>851,66 EUR</t>
+  </si>
+  <si>
+    <t>22-02-2022</t>
+  </si>
+  <si>
+    <t>1.597,18 EUR</t>
+  </si>
+  <si>
+    <t>215,31 EUR</t>
+  </si>
+  <si>
+    <t>21-02-2022</t>
+  </si>
+  <si>
+    <t>229,22 EUR</t>
+  </si>
+  <si>
+    <t>693,36 EUR</t>
+  </si>
+  <si>
+    <t>375,12 EUR</t>
+  </si>
+  <si>
+    <t>925,44 EUR</t>
+  </si>
+  <si>
+    <t>325,84 EUR</t>
+  </si>
+  <si>
+    <t>277,76 EUR</t>
+  </si>
+  <si>
+    <t>79,23 EUR</t>
+  </si>
+  <si>
+    <t>1.043,21 EUR</t>
+  </si>
+  <si>
+    <t>23-02-2022</t>
+  </si>
+  <si>
+    <t>2.754,41 EUR</t>
+  </si>
+  <si>
+    <t>121,43 EUR</t>
+  </si>
+  <si>
+    <t>5.942,24 EUR</t>
+  </si>
+  <si>
+    <t>81,46 EUR</t>
+  </si>
+  <si>
+    <t>23-02-2023</t>
+  </si>
+  <si>
+    <t>23-02-2024</t>
+  </si>
+  <si>
+    <t>145,32 EUR</t>
+  </si>
+  <si>
+    <t>23-02-2025</t>
+  </si>
+  <si>
+    <t>76,56 EUR</t>
+  </si>
+  <si>
+    <t>1.061,52 EUR</t>
+  </si>
+  <si>
+    <t>139,09 EUR</t>
+  </si>
+  <si>
+    <t>1.077,44 EUR</t>
+  </si>
+  <si>
+    <t>24-02-2022</t>
+  </si>
+  <si>
+    <t>7.310,28 EUR</t>
+  </si>
+  <si>
+    <t>1.044,43 EUR</t>
+  </si>
+  <si>
+    <t>142,56 EUR</t>
+  </si>
+  <si>
+    <t>758,76 EUR</t>
+  </si>
+  <si>
+    <t>932,40 EUR</t>
+  </si>
+  <si>
+    <t>392,41 EUR</t>
+  </si>
+  <si>
+    <t>472,40 EUR</t>
+  </si>
+  <si>
+    <t>1.118,23 EUR</t>
+  </si>
+  <si>
+    <t>150,89 EUR</t>
+  </si>
+  <si>
+    <t>4.775,73 EUR</t>
+  </si>
+  <si>
+    <t>2.453,56 EUR</t>
+  </si>
+  <si>
+    <t>172,29 EUR</t>
+  </si>
+  <si>
+    <t>25-02-2022</t>
+  </si>
+  <si>
+    <t>354,80 EUR</t>
+  </si>
+  <si>
+    <t>7.864,84 EUR</t>
+  </si>
+  <si>
+    <t>96,48 EUR</t>
+  </si>
+  <si>
+    <t>414,40 EUR</t>
+  </si>
+  <si>
+    <t>1.099,59 EUR</t>
+  </si>
+  <si>
+    <t>383,69 EUR</t>
+  </si>
+  <si>
+    <t>23,18 EUR</t>
+  </si>
+  <si>
+    <t>8.413,73 EUR</t>
+  </si>
+  <si>
+    <t>6.209,96 EUR</t>
+  </si>
+  <si>
+    <t>  01-03-2022</t>
+  </si>
+  <si>
+    <t>  0,00 EUR  </t>
+  </si>
+  <si>
+    <t>  7.521,13 EUR  </t>
+  </si>
+  <si>
+    <t>  463,85 EUR  </t>
+  </si>
+  <si>
+    <t>  28-02-2022</t>
+  </si>
+  <si>
+    <t>  35,12 EUR  </t>
+  </si>
+  <si>
+    <t>  145,44 EUR  </t>
+  </si>
+  <si>
+    <t>  25-02-2022</t>
+  </si>
+  <si>
+    <t>  161,44 EUR  </t>
+  </si>
+  <si>
+    <t>15,26 EUR</t>
+  </si>
+  <si>
+    <t>28-02-2022</t>
+  </si>
+  <si>
+    <t>853,84 EUR</t>
+  </si>
+  <si>
+    <t>179,10 EUR</t>
+  </si>
+  <si>
+    <t>279,52 EUR</t>
+  </si>
+  <si>
+    <t>7.121,88 EUR</t>
+  </si>
+  <si>
+    <t>24,68 EUR</t>
+  </si>
+  <si>
+    <t>468,74 EUR</t>
+  </si>
+  <si>
+    <t>158,01 EUR</t>
+  </si>
+  <si>
+    <t>4.670,98 EUR</t>
+  </si>
+  <si>
+    <t>355,54 EUR</t>
+  </si>
+  <si>
+    <t>909,26 EUR</t>
+  </si>
+  <si>
+    <t>335,44 EUR</t>
+  </si>
+  <si>
+    <t>167,13 EUR</t>
+  </si>
+  <si>
+    <t>347,76 EUR</t>
+  </si>
+  <si>
+    <t>29,90 EUR</t>
+  </si>
+  <si>
+    <t>3.543,09 EUR</t>
+  </si>
+  <si>
+    <t>616,94 EUR</t>
+  </si>
+  <si>
+    <t>125,37 EUR</t>
+  </si>
+  <si>
+    <t>452,14 EUR</t>
+  </si>
+  <si>
+    <t>681,41 EUR</t>
+  </si>
+  <si>
+    <t>69,83 EUR</t>
+  </si>
+  <si>
+    <t>2.396,25 EUR</t>
+  </si>
+  <si>
+    <t>657,44 EUR</t>
+  </si>
+  <si>
+    <t>6,96 EUR</t>
+  </si>
+  <si>
+    <t>1.832,33 EUR</t>
+  </si>
+  <si>
+    <t>784,44 EUR</t>
+  </si>
+  <si>
+    <t>  04-03-2022</t>
+  </si>
+  <si>
+    <t>  16,04 EUR  </t>
+  </si>
+  <si>
+    <t>  208,02 EUR  </t>
+  </si>
+  <si>
+    <t>  03-03-2022</t>
+  </si>
+  <si>
+    <t>  122,06 EUR  </t>
+  </si>
+  <si>
+    <t>  374,32 EUR  </t>
+  </si>
+  <si>
+    <t>200,38 EUR</t>
+  </si>
+  <si>
+    <t>1.998,73 EUR</t>
+  </si>
+  <si>
+    <t>424,22 EUR</t>
+  </si>
+  <si>
+    <t>336,16 EUR</t>
+  </si>
+  <si>
+    <t>12,25 EUR</t>
+  </si>
+  <si>
+    <t>2.828,92 EUR</t>
+  </si>
+  <si>
+    <t>195,76 EUR</t>
+  </si>
+  <si>
+    <t>863,08 EUR</t>
+  </si>
+  <si>
+    <t>391,81 EUR</t>
+  </si>
+  <si>
+    <t>1.080,51 EUR</t>
+  </si>
+  <si>
+    <t>997,08 EUR</t>
+  </si>
+  <si>
+    <t>373,51 EUR</t>
+  </si>
+  <si>
+    <t>286,11 EUR</t>
+  </si>
+  <si>
+    <t>4.147,64 EUR</t>
+  </si>
+  <si>
+    <t>5.574,80 EUR</t>
+  </si>
+  <si>
+    <t>239,39 EUR</t>
+  </si>
+  <si>
+    <t>1.078,32 EUR</t>
+  </si>
+  <si>
+    <t>618,45 EUR</t>
+  </si>
+  <si>
+    <t>24,06 EUR</t>
+  </si>
+  <si>
+    <t>593,28 EUR</t>
+  </si>
+  <si>
+    <t>810,69 EUR</t>
+  </si>
+  <si>
+    <t>285,64 EUR</t>
+  </si>
+  <si>
+    <t>400,05 EUR</t>
+  </si>
+  <si>
+    <t>157,16 EUR</t>
+  </si>
+  <si>
+    <t>41,92 EUR</t>
+  </si>
+  <si>
+    <t>  09-03-2022</t>
+  </si>
+  <si>
+    <t>  7.019,66 EUR  </t>
+  </si>
+  <si>
+    <t>  553,22 EUR  </t>
+  </si>
+  <si>
+    <t>  08-03-2022</t>
+  </si>
+  <si>
+    <t>  691,60 EUR  </t>
+  </si>
+  <si>
+    <t>  229,32 EUR  </t>
+  </si>
+  <si>
+    <t>266,97 EUR</t>
+  </si>
+  <si>
+    <t>552,68 EUR</t>
+  </si>
+  <si>
+    <t>370,01 EUR</t>
+  </si>
+  <si>
+    <t>1.015,49 EUR</t>
+  </si>
+  <si>
+    <t>0,01 EUR</t>
+  </si>
+  <si>
+    <t>500,07 EUR</t>
+  </si>
+  <si>
+    <t>857,08 EUR</t>
+  </si>
+  <si>
+    <t>296,00 EUR</t>
+  </si>
+  <si>
+    <t>8.595,82 EUR</t>
+  </si>
+  <si>
+    <t>733,80 EUR</t>
+  </si>
+  <si>
+    <t>414,16 EUR</t>
+  </si>
+  <si>
+    <t>1.147,58 EUR</t>
+  </si>
+  <si>
+    <t>43,26 EUR</t>
+  </si>
+  <si>
+    <t>1.532,36 EUR</t>
+  </si>
+  <si>
+    <t>2.027,28 EUR</t>
+  </si>
+  <si>
+    <t>106,44 EUR</t>
+  </si>
+  <si>
+    <t>451,33 EUR</t>
+  </si>
+  <si>
+    <t>3.154,20 EUR</t>
+  </si>
+  <si>
+    <t>284,49 EUR</t>
+  </si>
+  <si>
+    <t>2.103,45 EUR</t>
+  </si>
+  <si>
+    <t>50,04 EUR</t>
+  </si>
+  <si>
+    <t>709,67 EUR</t>
+  </si>
+  <si>
+    <t>788,75 EUR</t>
+  </si>
+  <si>
+    <t>1.009,72 EUR</t>
+  </si>
+  <si>
+    <t>559,04 EUR</t>
+  </si>
+  <si>
+    <t>46,64 EUR</t>
+  </si>
+  <si>
+    <t>3.799,66 EUR</t>
+  </si>
+  <si>
+    <t>253,46 EUR</t>
+  </si>
+  <si>
+    <t>1.263,80 EUR</t>
+  </si>
+  <si>
+    <t>2.790,22 EUR</t>
+  </si>
+  <si>
+    <t>643,79 EUR</t>
+  </si>
+  <si>
+    <t>1.154,28 EUR</t>
+  </si>
+  <si>
+    <t>220,08 EUR</t>
+  </si>
+  <si>
+    <t>850,92 EUR</t>
+  </si>
+  <si>
+    <t>263,09 EUR</t>
+  </si>
+  <si>
+    <t>711,16 EUR</t>
+  </si>
+  <si>
+    <t>305,18 EUR</t>
+  </si>
+  <si>
+    <t>764,80 EUR</t>
+  </si>
+  <si>
     <t>14-03-2022</t>
   </si>
   <si>
-    <t>0,00 EUR</t>
+    <t>1.135,68 EUR</t>
+  </si>
+  <si>
+    <t>681,97 EUR</t>
+  </si>
+  <si>
+    <t>461,11 EUR</t>
   </si>
   <si>
     <t>39,78 EUR</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Importe</t>
-  </si>
-  <si>
-    <t>2.260,31 EUR</t>
-  </si>
-  <si>
-    <t>727,89 EUR</t>
-  </si>
-  <si>
-    <t>155,49 EUR</t>
-  </si>
-  <si>
-    <t>159,17 EUR</t>
-  </si>
-  <si>
-    <t>2.152,77 EUR</t>
-  </si>
-  <si>
-    <t>1.644,28 EUR</t>
-  </si>
-  <si>
-    <t>102,51 EUR</t>
-  </si>
-  <si>
-    <t>749,40 EUR</t>
-  </si>
-  <si>
-    <t>29,30 EUR</t>
-  </si>
-  <si>
-    <t>161,90 EUR</t>
-  </si>
-  <si>
-    <t>1.629,49 EUR</t>
-  </si>
-  <si>
-    <t>493,71 EUR</t>
-  </si>
-  <si>
-    <t>486,16 EUR</t>
-  </si>
-  <si>
-    <t>29,06 EUR</t>
-  </si>
-  <si>
-    <t>158,05 EUR</t>
-  </si>
-  <si>
-    <t>34,47 EUR</t>
-  </si>
-  <si>
-    <t>71,68 EUR</t>
-  </si>
-  <si>
-    <t>771,69 EUR</t>
-  </si>
-  <si>
-    <t>3.453,40 EUR</t>
-  </si>
-  <si>
-    <t>237,60 EUR</t>
-  </si>
-  <si>
-    <t>59,29 EUR</t>
-  </si>
-  <si>
-    <t>2.795,89 EUR</t>
-  </si>
-  <si>
-    <t>187,52 EUR</t>
-  </si>
-  <si>
-    <t>694,32 EUR</t>
-  </si>
-  <si>
-    <t>1.537,91 EUR</t>
-  </si>
-  <si>
-    <t>712,37 EUR</t>
-  </si>
-  <si>
-    <t>26,47 EUR</t>
-  </si>
-  <si>
-    <t>6,11 EUR</t>
-  </si>
-  <si>
-    <t>6.940,15 EUR</t>
-  </si>
-  <si>
-    <t>991,55 EUR</t>
-  </si>
-  <si>
-    <t>171,69 EUR</t>
-  </si>
-  <si>
-    <t>66,28 EUR</t>
-  </si>
-  <si>
-    <t>39,82 EUR</t>
-  </si>
-  <si>
-    <t>1.022,16 EUR</t>
-  </si>
-  <si>
-    <t>2.087,03 EUR</t>
-  </si>
-  <si>
-    <t>607,70 EUR</t>
-  </si>
-  <si>
-    <t>316,10 EUR</t>
-  </si>
-  <si>
-    <t>252,54 EUR</t>
-  </si>
-  <si>
-    <t>410,93 EUR</t>
-  </si>
-  <si>
-    <t>1.367,80 EUR</t>
-  </si>
-  <si>
-    <t>6.667,88 EUR</t>
-  </si>
-  <si>
-    <t>186,47 EUR</t>
-  </si>
-  <si>
-    <t>254,50 EUR</t>
-  </si>
-  <si>
-    <t>253,49 EUR</t>
-  </si>
-  <si>
-    <t>87,83 EUR</t>
-  </si>
-  <si>
-    <t>62,57 EUR</t>
-  </si>
-  <si>
-    <t>693,76 EUR</t>
-  </si>
-  <si>
-    <t>569,84 EUR</t>
-  </si>
-  <si>
-    <t>387,14 EUR</t>
-  </si>
-  <si>
-    <t>31,61 EUR</t>
-  </si>
-  <si>
-    <t>13.907,56 EUR</t>
-  </si>
-  <si>
-    <t>1.166,80 EUR</t>
-  </si>
-  <si>
-    <t>12.458,75 EUR</t>
-  </si>
-  <si>
-    <t>243,08 EUR</t>
-  </si>
-  <si>
-    <t>1.406,90 EUR</t>
-  </si>
-  <si>
-    <t>42,49 EUR</t>
-  </si>
-  <si>
-    <t>452,33 EUR</t>
-  </si>
-  <si>
-    <t>3,70 EUR</t>
-  </si>
-  <si>
-    <t>1.984,16 EUR</t>
-  </si>
-  <si>
-    <t>1.573,06 EUR</t>
-  </si>
-  <si>
-    <t>5.361,20 EUR</t>
-  </si>
-  <si>
-    <t>15,72 EUR</t>
-  </si>
-  <si>
-    <t>41,44 EUR</t>
-  </si>
-  <si>
-    <t>1.178,22 EUR</t>
-  </si>
-  <si>
-    <t>117,09 EUR</t>
-  </si>
-  <si>
-    <t>56,88 EUR</t>
-  </si>
-  <si>
-    <t>7.190,61 EUR</t>
-  </si>
-  <si>
-    <t>172,79 EUR</t>
-  </si>
-  <si>
-    <t>2,94 EUR</t>
-  </si>
-  <si>
-    <t>500,68 EUR</t>
-  </si>
-  <si>
-    <t>4.769,77 EUR</t>
-  </si>
-  <si>
-    <t>1.227,64 EUR</t>
-  </si>
-  <si>
-    <t>94,86 EUR</t>
-  </si>
-  <si>
-    <t>941,60 EUR</t>
-  </si>
-  <si>
-    <t>1.615,91 EUR</t>
-  </si>
-  <si>
-    <t>387,53 EUR</t>
-  </si>
-  <si>
-    <t>420,42 EUR</t>
-  </si>
-  <si>
-    <t>1.049,35 EUR</t>
-  </si>
-  <si>
-    <t>139,48 EUR</t>
-  </si>
-  <si>
-    <t>48,31 EUR</t>
-  </si>
-  <si>
-    <t>681,02 EUR</t>
-  </si>
-  <si>
-    <t>1.646,08 EUR</t>
-  </si>
-  <si>
-    <t>1,26 EUR</t>
-  </si>
-  <si>
-    <t>1.837,47 EUR</t>
-  </si>
-  <si>
-    <t>462,41 EUR</t>
-  </si>
-  <si>
-    <t>1.393,63 EUR</t>
-  </si>
-  <si>
-    <t>4.210,26 EUR</t>
-  </si>
-  <si>
-    <t>430,32 EUR</t>
-  </si>
-  <si>
-    <t>172,01 EUR</t>
-  </si>
-  <si>
-    <t>1.000,22 EUR</t>
-  </si>
-  <si>
-    <t>3.239,36 EUR</t>
-  </si>
-  <si>
-    <t>1.589,28 EUR</t>
-  </si>
-  <si>
-    <t>290,62 EUR</t>
-  </si>
-  <si>
-    <t>68,80 EUR</t>
-  </si>
-  <si>
-    <t>83,40 EUR</t>
-  </si>
-  <si>
-    <t>646,76 EUR</t>
-  </si>
-  <si>
-    <t>108,97 EUR</t>
-  </si>
-  <si>
-    <t>345,81 EUR</t>
-  </si>
-  <si>
-    <t>22,70 EUR</t>
-  </si>
-  <si>
-    <t>1.121,81 EUR</t>
-  </si>
-  <si>
-    <t>564,56 EUR</t>
-  </si>
-  <si>
-    <t>2.307,53 EUR</t>
-  </si>
-  <si>
-    <t>537,95 EUR</t>
-  </si>
-  <si>
-    <t>1.078,77 EUR</t>
-  </si>
-  <si>
-    <t>666,93 EUR</t>
-  </si>
-  <si>
-    <t>89,31 EUR</t>
-  </si>
-  <si>
-    <t>1.896,20 EUR</t>
-  </si>
-  <si>
-    <t>468,59 EUR</t>
-  </si>
-  <si>
-    <t>422,90 EUR</t>
-  </si>
-  <si>
-    <t>37,46 EUR</t>
-  </si>
-  <si>
-    <t>240,78 EUR</t>
-  </si>
-  <si>
-    <t>5.124,02 EUR</t>
-  </si>
-  <si>
-    <t>785,01 EUR</t>
-  </si>
-  <si>
-    <t>20,38 EUR</t>
-  </si>
-  <si>
-    <t>128,23 EUR</t>
-  </si>
-  <si>
-    <t>829,86 EUR</t>
-  </si>
-  <si>
-    <t>440,80 EUR</t>
-  </si>
-  <si>
-    <t>673,42 EUR</t>
-  </si>
-  <si>
-    <t>3.013,38 EUR</t>
-  </si>
-  <si>
-    <t>693,18 EUR</t>
-  </si>
-  <si>
-    <t>2.940,97 EUR</t>
-  </si>
-  <si>
-    <t>4.528,06 EUR</t>
-  </si>
-  <si>
-    <t>1.161,39 EUR</t>
-  </si>
-  <si>
-    <t>778,34 EUR</t>
-  </si>
-  <si>
-    <t>165,08 EUR</t>
-  </si>
-  <si>
-    <t>42,36 EUR</t>
-  </si>
-  <si>
-    <t>1.131,19 EUR</t>
-  </si>
-  <si>
-    <t>756,02 EUR</t>
-  </si>
-  <si>
-    <t>1.073,65 EUR</t>
-  </si>
-  <si>
-    <t>1.598,47 EUR</t>
-  </si>
-  <si>
-    <t>1.168,28 EUR</t>
-  </si>
-  <si>
-    <t>445,39 EUR</t>
-  </si>
-  <si>
-    <t>1.239,59 EUR</t>
-  </si>
-  <si>
-    <t>937,76 EUR</t>
-  </si>
-  <si>
-    <t>331,79 EUR</t>
-  </si>
-  <si>
-    <t>2.526,79 EUR</t>
-  </si>
-  <si>
-    <t>254,67 EUR</t>
-  </si>
-  <si>
-    <t>46,70 EUR</t>
-  </si>
-  <si>
-    <t>1.571,88 EUR</t>
-  </si>
-  <si>
-    <t>1.316,69 EUR</t>
-  </si>
-  <si>
-    <t>1.408,48 EUR</t>
-  </si>
-  <si>
-    <t>92,00 EUR</t>
-  </si>
-  <si>
-    <t>1.548,80 EUR</t>
-  </si>
-  <si>
-    <t>189,07 EUR</t>
-  </si>
-  <si>
-    <t>6.267,66 EUR</t>
-  </si>
-  <si>
-    <t>479,16 EUR</t>
-  </si>
-  <si>
-    <t>5.209,29 EUR</t>
-  </si>
-  <si>
-    <t>1.003,69 EUR</t>
-  </si>
-  <si>
-    <t>129,71 EUR</t>
-  </si>
-  <si>
-    <t>1.222,01 EUR</t>
-  </si>
-  <si>
-    <t>425,97 EUR</t>
-  </si>
-  <si>
-    <t>6.908,16 EUR</t>
-  </si>
-  <si>
-    <t>1.139,87 EUR</t>
-  </si>
-  <si>
-    <t>367,88 EUR</t>
-  </si>
-  <si>
-    <t>221,84 EUR</t>
-  </si>
-  <si>
-    <t>363,46 EUR</t>
-  </si>
-  <si>
-    <t>696,30 EUR</t>
-  </si>
-  <si>
-    <t>50,55 EUR</t>
-  </si>
-  <si>
-    <t>29,48 EUR</t>
-  </si>
-  <si>
-    <t>80,41 EUR</t>
-  </si>
-  <si>
-    <t>6.889,96 EUR</t>
-  </si>
-  <si>
-    <t>1.113,43 EUR</t>
-  </si>
-  <si>
-    <t>503,14 EUR</t>
-  </si>
-  <si>
-    <t>36,16 EUR</t>
-  </si>
-  <si>
-    <t>682,15 EUR</t>
-  </si>
-  <si>
-    <t>486,50 EUR</t>
-  </si>
-  <si>
-    <t>2.861,04 EUR</t>
-  </si>
-  <si>
-    <t>267,79 EUR</t>
-  </si>
-  <si>
-    <t>1.343,43 EUR</t>
-  </si>
-  <si>
-    <t>2.521,57 EUR</t>
-  </si>
-  <si>
-    <t>329,08 EUR</t>
-  </si>
-  <si>
-    <t>80,26 EUR</t>
-  </si>
-  <si>
-    <t>9,07 EUR</t>
-  </si>
-  <si>
-    <t>52,11 EUR</t>
-  </si>
-  <si>
-    <t>197,79 EUR</t>
-  </si>
-  <si>
-    <t>561,70 EUR</t>
-  </si>
-  <si>
-    <t>632,96 EUR</t>
-  </si>
-  <si>
-    <t>449,90 EUR</t>
-  </si>
-  <si>
-    <t>125,78 EUR</t>
-  </si>
-  <si>
-    <t>2.046,74 EUR</t>
-  </si>
-  <si>
-    <t>100,80 EUR</t>
-  </si>
-  <si>
-    <t>733,22 EUR</t>
-  </si>
-  <si>
-    <t>1.869,13 EUR</t>
-  </si>
-  <si>
-    <t>7.888,48 EUR</t>
-  </si>
-  <si>
-    <t>1.892,65 EUR</t>
-  </si>
-  <si>
-    <t>9,86 EUR</t>
-  </si>
-  <si>
-    <t>1.036,73 EUR</t>
-  </si>
-  <si>
-    <t>167,72 EUR</t>
-  </si>
-  <si>
-    <t>62,82 EUR</t>
-  </si>
-  <si>
-    <t>5.922,13 EUR</t>
-  </si>
-  <si>
-    <t>1.967,49 EUR</t>
-  </si>
-  <si>
-    <t>236,64 EUR</t>
-  </si>
-  <si>
-    <t>1.067,00 EUR</t>
-  </si>
-  <si>
-    <t>220,40 EUR</t>
-  </si>
-  <si>
-    <t>448,99 EUR</t>
-  </si>
-  <si>
-    <t>17,95 EUR</t>
-  </si>
-  <si>
-    <t>311,20 EUR</t>
-  </si>
-  <si>
-    <t>3.623,71 EUR</t>
-  </si>
-  <si>
-    <t>1.660,23 EUR</t>
-  </si>
-  <si>
-    <t>7.575,44 EUR</t>
-  </si>
-  <si>
-    <t>777,86 EUR</t>
-  </si>
-  <si>
-    <t>819,49 EUR</t>
-  </si>
-  <si>
-    <t>616,17 EUR</t>
-  </si>
-  <si>
-    <t>2.890,27 EUR</t>
-  </si>
-  <si>
-    <t>1.701,94 EUR</t>
-  </si>
-  <si>
-    <t>504,86 EUR</t>
-  </si>
-  <si>
-    <t>332,83 EUR</t>
-  </si>
-  <si>
-    <t>649,16 EUR</t>
-  </si>
-  <si>
-    <t>6.473,99 EUR</t>
-  </si>
-  <si>
-    <t>4.082,28 EUR</t>
-  </si>
-  <si>
-    <t>1.434,86 EUR</t>
-  </si>
-  <si>
-    <t>677,68 EUR</t>
-  </si>
-  <si>
-    <t>422,93 EUR</t>
-  </si>
-  <si>
-    <t>1.189,62 EUR</t>
-  </si>
-  <si>
-    <t>491,20 EUR</t>
-  </si>
-  <si>
-    <t>242,83 EUR</t>
-  </si>
-  <si>
-    <t>1.362,98 EUR</t>
-  </si>
-  <si>
-    <t>27,75 EUR</t>
-  </si>
-  <si>
-    <t>4.592,57 EUR</t>
-  </si>
-  <si>
-    <t>1.611,15 EUR</t>
-  </si>
-  <si>
-    <t>128,88 EUR</t>
-  </si>
-  <si>
-    <t>342,94 EUR</t>
-  </si>
-  <si>
-    <t>4.141,26 EUR</t>
-  </si>
-  <si>
-    <t>155,40 EUR</t>
-  </si>
-  <si>
-    <t>729,64 EUR</t>
-  </si>
-  <si>
-    <t>1.034,36 EUR</t>
-  </si>
-  <si>
-    <t>1.181,00 EUR</t>
-  </si>
-  <si>
-    <t>4.952,43 EUR</t>
-  </si>
-  <si>
-    <t>462,67 EUR</t>
-  </si>
-  <si>
-    <t>251,13 EUR</t>
-  </si>
-  <si>
-    <t>91,71 EUR</t>
-  </si>
-  <si>
-    <t>102,49 EUR</t>
-  </si>
-  <si>
-    <t>241,32 EUR</t>
-  </si>
-  <si>
-    <t>260,92 EUR</t>
-  </si>
-  <si>
-    <t>90,69 EUR</t>
-  </si>
-  <si>
-    <t>579,11 EUR</t>
-  </si>
-  <si>
-    <t>15-02-2022</t>
-  </si>
-  <si>
-    <t>8.735,57 EUR</t>
-  </si>
-  <si>
-    <t>1.005,03 EUR</t>
-  </si>
-  <si>
-    <t>13,14 EUR</t>
-  </si>
-  <si>
-    <t>885,26 EUR</t>
-  </si>
-  <si>
-    <t>14-02-2022</t>
-  </si>
-  <si>
-    <t>2.216,78 EUR</t>
-  </si>
-  <si>
-    <t>541,86 EUR</t>
-  </si>
-  <si>
-    <t>737,77 EUR</t>
-  </si>
-  <si>
-    <t>101,78 EUR</t>
-  </si>
-  <si>
-    <t>575,98 EUR</t>
-  </si>
-  <si>
-    <t>295,98 EUR</t>
-  </si>
-  <si>
-    <t>16-02-2022</t>
-  </si>
-  <si>
-    <t>2.178,63 EUR</t>
-  </si>
-  <si>
-    <t>870,00 EUR</t>
-  </si>
-  <si>
-    <t>655,63 EUR</t>
-  </si>
-  <si>
-    <t>26,51 EUR</t>
-  </si>
-  <si>
-    <t>225,34 EUR</t>
-  </si>
-  <si>
-    <t>484,48 EUR</t>
-  </si>
-  <si>
-    <t>121,33 EUR</t>
-  </si>
-  <si>
-    <t>154,07 EUR</t>
-  </si>
-  <si>
-    <t>596,52 EUR</t>
-  </si>
-  <si>
-    <t>777,24 EUR</t>
-  </si>
-  <si>
-    <t>17-02-2022</t>
-  </si>
-  <si>
-    <t>2.220,74 EUR</t>
-  </si>
-  <si>
-    <t>3.016,27 EUR</t>
-  </si>
-  <si>
-    <t>718,19 EUR</t>
-  </si>
-  <si>
-    <t>670,32 EUR</t>
-  </si>
-  <si>
-    <t>106,80 EUR</t>
-  </si>
-  <si>
-    <t>2.088,07 EUR</t>
-  </si>
-  <si>
-    <t>812,20 EUR</t>
-  </si>
-  <si>
-    <t>172,86 EUR</t>
-  </si>
-  <si>
-    <t>183,33 EUR</t>
-  </si>
-  <si>
-    <t>3.401,90 EUR</t>
-  </si>
-  <si>
-    <t>693,56 EUR</t>
-  </si>
-  <si>
-    <t>78,47 EUR</t>
-  </si>
-  <si>
-    <t>3.489,64 EUR</t>
-  </si>
-  <si>
-    <t>724,16 EUR</t>
-  </si>
-  <si>
-    <t>18-02-2022</t>
-  </si>
-  <si>
-    <t>1.239,91 EUR</t>
-  </si>
-  <si>
-    <t>246,41 EUR</t>
-  </si>
-  <si>
-    <t>260,53 EUR</t>
-  </si>
-  <si>
-    <t>472,58 EUR</t>
-  </si>
-  <si>
-    <t>393,72 EUR</t>
-  </si>
-  <si>
-    <t>173,88 EUR</t>
-  </si>
-  <si>
-    <t>1.071,59 EUR</t>
-  </si>
-  <si>
-    <t>517,22 EUR</t>
-  </si>
-  <si>
-    <t>1.021,22 EUR</t>
-  </si>
-  <si>
-    <t>39,41 EUR</t>
-  </si>
-  <si>
-    <t>9,75 EUR</t>
-  </si>
-  <si>
-    <t>19-02-2022</t>
-  </si>
-  <si>
-    <t>17.067,34 EUR</t>
-  </si>
-  <si>
-    <t>952,50 EUR</t>
-  </si>
-  <si>
-    <t>0,41 EUR</t>
-  </si>
-  <si>
-    <t>1.369,33 EUR</t>
-  </si>
-  <si>
-    <t>1.513,16 EUR</t>
-  </si>
-  <si>
-    <t>858,18 EUR</t>
-  </si>
-  <si>
-    <t>297,94 EUR</t>
-  </si>
-  <si>
-    <t>183,74 EUR</t>
-  </si>
-  <si>
-    <t>2.297,85 EUR</t>
-  </si>
-  <si>
-    <t>851,66 EUR</t>
-  </si>
-  <si>
-    <t>22-02-2022</t>
-  </si>
-  <si>
-    <t>1.597,18 EUR</t>
-  </si>
-  <si>
-    <t>215,31 EUR</t>
-  </si>
-  <si>
-    <t>21-02-2022</t>
-  </si>
-  <si>
-    <t>229,22 EUR</t>
-  </si>
-  <si>
-    <t>693,36 EUR</t>
-  </si>
-  <si>
-    <t>375,12 EUR</t>
-  </si>
-  <si>
-    <t>925,44 EUR</t>
-  </si>
-  <si>
-    <t>325,84 EUR</t>
-  </si>
-  <si>
-    <t>277,76 EUR</t>
-  </si>
-  <si>
-    <t>79,23 EUR</t>
-  </si>
-  <si>
-    <t>1.043,21 EUR</t>
-  </si>
-  <si>
-    <t>23-02-2022</t>
-  </si>
-  <si>
-    <t>2.754,41 EUR</t>
-  </si>
-  <si>
-    <t>121,43 EUR</t>
-  </si>
-  <si>
-    <t>5.942,24 EUR</t>
-  </si>
-  <si>
-    <t>81,46 EUR</t>
-  </si>
-  <si>
-    <t>23-02-2023</t>
-  </si>
-  <si>
-    <t>23-02-2024</t>
-  </si>
-  <si>
-    <t>145,32 EUR</t>
-  </si>
-  <si>
-    <t>23-02-2025</t>
-  </si>
-  <si>
-    <t>76,56 EUR</t>
-  </si>
-  <si>
-    <t>1.061,52 EUR</t>
-  </si>
-  <si>
-    <t>139,09 EUR</t>
-  </si>
-  <si>
-    <t>1.077,44 EUR</t>
-  </si>
-  <si>
-    <t>24-02-2022</t>
-  </si>
-  <si>
-    <t>7.310,28 EUR</t>
-  </si>
-  <si>
-    <t>1.044,43 EUR</t>
-  </si>
-  <si>
-    <t>142,56 EUR</t>
-  </si>
-  <si>
-    <t>758,76 EUR</t>
-  </si>
-  <si>
-    <t>932,40 EUR</t>
-  </si>
-  <si>
-    <t>392,41 EUR</t>
-  </si>
-  <si>
-    <t>472,40 EUR</t>
-  </si>
-  <si>
-    <t>1.118,23 EUR</t>
-  </si>
-  <si>
-    <t>150,89 EUR</t>
-  </si>
-  <si>
-    <t>4.775,73 EUR</t>
-  </si>
-  <si>
-    <t>2.453,56 EUR</t>
-  </si>
-  <si>
-    <t>172,29 EUR</t>
-  </si>
-  <si>
-    <t>25-02-2022</t>
-  </si>
-  <si>
-    <t>354,80 EUR</t>
-  </si>
-  <si>
-    <t>7.864,84 EUR</t>
-  </si>
-  <si>
-    <t>96,48 EUR</t>
-  </si>
-  <si>
-    <t>414,40 EUR</t>
-  </si>
-  <si>
-    <t>1.099,59 EUR</t>
-  </si>
-  <si>
-    <t>383,69 EUR</t>
-  </si>
-  <si>
-    <t>23,18 EUR</t>
-  </si>
-  <si>
-    <t>8.413,73 EUR</t>
-  </si>
-  <si>
-    <t>6.209,96 EUR</t>
-  </si>
-  <si>
-    <t>  01-03-2022</t>
-  </si>
-  <si>
-    <t>  0,00 EUR  </t>
-  </si>
-  <si>
-    <t>  7.521,13 EUR  </t>
-  </si>
-  <si>
-    <t>  463,85 EUR  </t>
-  </si>
-  <si>
-    <t>  28-02-2022</t>
-  </si>
-  <si>
-    <t>  35,12 EUR  </t>
-  </si>
-  <si>
-    <t>  145,44 EUR  </t>
-  </si>
-  <si>
-    <t>  25-02-2022</t>
-  </si>
-  <si>
-    <t>  161,44 EUR  </t>
-  </si>
-  <si>
-    <t>15,26 EUR</t>
-  </si>
-  <si>
-    <t>28-02-2022</t>
-  </si>
-  <si>
-    <t>853,84 EUR</t>
-  </si>
-  <si>
-    <t>179,10 EUR</t>
-  </si>
-  <si>
-    <t>279,52 EUR</t>
-  </si>
-  <si>
-    <t>7.121,88 EUR</t>
-  </si>
-  <si>
-    <t>24,68 EUR</t>
-  </si>
-  <si>
-    <t>468,74 EUR</t>
-  </si>
-  <si>
-    <t>158,01 EUR</t>
-  </si>
-  <si>
-    <t>4.670,98 EUR</t>
-  </si>
-  <si>
-    <t>355,54 EUR</t>
-  </si>
-  <si>
-    <t>909,26 EUR</t>
-  </si>
-  <si>
-    <t>335,44 EUR</t>
-  </si>
-  <si>
-    <t>167,13 EUR</t>
-  </si>
-  <si>
-    <t>347,76 EUR</t>
-  </si>
-  <si>
-    <t>29,90 EUR</t>
-  </si>
-  <si>
-    <t>3.543,09 EUR</t>
-  </si>
-  <si>
-    <t>616,94 EUR</t>
-  </si>
-  <si>
-    <t>125,37 EUR</t>
-  </si>
-  <si>
-    <t>452,14 EUR</t>
-  </si>
-  <si>
-    <t>681,41 EUR</t>
-  </si>
-  <si>
-    <t>69,83 EUR</t>
-  </si>
-  <si>
-    <t>2.396,25 EUR</t>
-  </si>
-  <si>
-    <t>657,44 EUR</t>
-  </si>
-  <si>
-    <t>6,96 EUR</t>
-  </si>
-  <si>
-    <t>1.832,33 EUR</t>
-  </si>
-  <si>
-    <t>784,44 EUR</t>
-  </si>
-  <si>
-    <t>  04-03-2022</t>
-  </si>
-  <si>
-    <t>  16,04 EUR  </t>
-  </si>
-  <si>
-    <t>  208,02 EUR  </t>
-  </si>
-  <si>
-    <t>  03-03-2022</t>
-  </si>
-  <si>
-    <t>  122,06 EUR  </t>
-  </si>
-  <si>
-    <t>  374,32 EUR  </t>
-  </si>
-  <si>
-    <t>200,38 EUR</t>
-  </si>
-  <si>
-    <t>1.998,73 EUR</t>
-  </si>
-  <si>
-    <t>424,22 EUR</t>
-  </si>
-  <si>
-    <t>336,16 EUR</t>
-  </si>
-  <si>
-    <t>12,25 EUR</t>
-  </si>
-  <si>
-    <t>2.828,92 EUR</t>
-  </si>
-  <si>
-    <t>195,76 EUR</t>
-  </si>
-  <si>
-    <t>863,08 EUR</t>
-  </si>
-  <si>
-    <t>391,81 EUR</t>
-  </si>
-  <si>
-    <t>1.080,51 EUR</t>
-  </si>
-  <si>
-    <t>997,08 EUR</t>
-  </si>
-  <si>
-    <t>373,51 EUR</t>
-  </si>
-  <si>
-    <t>286,11 EUR</t>
-  </si>
-  <si>
-    <t>4.147,64 EUR</t>
-  </si>
-  <si>
-    <t>5.574,80 EUR</t>
-  </si>
-  <si>
-    <t>239,39 EUR</t>
-  </si>
-  <si>
-    <t>1.078,32 EUR</t>
-  </si>
-  <si>
-    <t>618,45 EUR</t>
-  </si>
-  <si>
-    <t>24,06 EUR</t>
-  </si>
-  <si>
-    <t>593,28 EUR</t>
-  </si>
-  <si>
-    <t>810,69 EUR</t>
-  </si>
-  <si>
-    <t>285,64 EUR</t>
-  </si>
-  <si>
-    <t>400,05 EUR</t>
-  </si>
-  <si>
-    <t>157,16 EUR</t>
-  </si>
-  <si>
-    <t>41,92 EUR</t>
-  </si>
-  <si>
-    <t>  09-03-2022</t>
-  </si>
-  <si>
-    <t>  7.019,66 EUR  </t>
-  </si>
-  <si>
-    <t>  553,22 EUR  </t>
-  </si>
-  <si>
-    <t>  08-03-2022</t>
-  </si>
-  <si>
-    <t>  691,60 EUR  </t>
-  </si>
-  <si>
-    <t>  229,32 EUR  </t>
-  </si>
-  <si>
-    <t>266,97 EUR</t>
-  </si>
-  <si>
-    <t>552,68 EUR</t>
-  </si>
-  <si>
-    <t>370,01 EUR</t>
-  </si>
-  <si>
-    <t>1.015,49 EUR</t>
-  </si>
-  <si>
-    <t>0,01 EUR</t>
-  </si>
-  <si>
-    <t>500,07 EUR</t>
-  </si>
-  <si>
-    <t>857,08 EUR</t>
-  </si>
-  <si>
-    <t>296,00 EUR</t>
-  </si>
-  <si>
-    <t>8.595,82 EUR</t>
-  </si>
-  <si>
-    <t>733,80 EUR</t>
-  </si>
-  <si>
-    <t>414,16 EUR</t>
-  </si>
-  <si>
-    <t>1.147,58 EUR</t>
-  </si>
-  <si>
-    <t>43,26 EUR</t>
-  </si>
-  <si>
-    <t>1.532,36 EUR</t>
-  </si>
-  <si>
-    <t>2.027,28 EUR</t>
-  </si>
-  <si>
-    <t>106,44 EUR</t>
-  </si>
-  <si>
-    <t>451,33 EUR</t>
-  </si>
-  <si>
-    <t>3.154,20 EUR</t>
-  </si>
-  <si>
-    <t>284,49 EUR</t>
-  </si>
-  <si>
-    <t>2.103,45 EUR</t>
-  </si>
-  <si>
-    <t>50,04 EUR</t>
-  </si>
-  <si>
-    <t>709,67 EUR</t>
-  </si>
-  <si>
-    <t>788,75 EUR</t>
-  </si>
-  <si>
-    <t>1.009,72 EUR</t>
-  </si>
-  <si>
-    <t>559,04 EUR</t>
-  </si>
-  <si>
-    <t>46,64 EUR</t>
-  </si>
-  <si>
-    <t>3.799,66 EUR</t>
-  </si>
-  <si>
-    <t>253,46 EUR</t>
-  </si>
-  <si>
-    <t>1.263,80 EUR</t>
-  </si>
-  <si>
-    <t>2.790,22 EUR</t>
-  </si>
-  <si>
-    <t>643,79 EUR</t>
-  </si>
-  <si>
-    <t>1.154,28 EUR</t>
-  </si>
-  <si>
-    <t>220,08 EUR</t>
-  </si>
-  <si>
-    <t>850,92 EUR</t>
-  </si>
-  <si>
-    <t>263,09 EUR</t>
-  </si>
-  <si>
-    <t>711,16 EUR</t>
-  </si>
-  <si>
-    <t>305,18 EUR</t>
-  </si>
-  <si>
-    <t>764,80 EUR</t>
-  </si>
-  <si>
-    <t>1.135,68 EUR</t>
-  </si>
-  <si>
-    <t>681,97 EUR</t>
-  </si>
-  <si>
-    <t>461,11 EUR</t>
-  </si>
-  <si>
     <t>  15-03-2022</t>
   </si>
   <si>
@@ -1454,6 +1460,270 @@
   </si>
   <si>
     <t>  277,68 EUR</t>
+  </si>
+  <si>
+    <t>16-03-2022</t>
+  </si>
+  <si>
+    <t>382,24 EUR</t>
+  </si>
+  <si>
+    <t>17-03-2022</t>
+  </si>
+  <si>
+    <t>1.708,56 EUR</t>
+  </si>
+  <si>
+    <t>449,36 EUR</t>
+  </si>
+  <si>
+    <t>368,00 EUR</t>
+  </si>
+  <si>
+    <t>19-03-2022</t>
+  </si>
+  <si>
+    <t>7.177,83 EUR</t>
+  </si>
+  <si>
+    <t>2.309,43 EUR</t>
+  </si>
+  <si>
+    <t>18-03-2022</t>
+  </si>
+  <si>
+    <t>104,87 EUR</t>
+  </si>
+  <si>
+    <t>903,81 EUR</t>
+  </si>
+  <si>
+    <t>404,81 EUR</t>
+  </si>
+  <si>
+    <t>2.592,33 EUR</t>
+  </si>
+  <si>
+    <t>802,01 EUR</t>
+  </si>
+  <si>
+    <t>21-03-2022</t>
+  </si>
+  <si>
+    <t>13,26 EUR</t>
+  </si>
+  <si>
+    <t>614,82 EUR</t>
+  </si>
+  <si>
+    <t>1.409,60 EUR</t>
+  </si>
+  <si>
+    <t>11,18 EUR</t>
+  </si>
+  <si>
+    <t>634,74 EUR</t>
+  </si>
+  <si>
+    <t>23,78 EUR</t>
+  </si>
+  <si>
+    <t>23-03-2022</t>
+  </si>
+  <si>
+    <t>879,58 EUR</t>
+  </si>
+  <si>
+    <t>22-03-2022</t>
+  </si>
+  <si>
+    <t>1.315,92 EUR</t>
+  </si>
+  <si>
+    <t>5.711,52 EUR</t>
+  </si>
+  <si>
+    <t>709,01 EUR</t>
+  </si>
+  <si>
+    <t>325,99 EUR</t>
+  </si>
+  <si>
+    <t>264,19 EUR</t>
+  </si>
+  <si>
+    <t>1.241,65 EUR</t>
+  </si>
+  <si>
+    <t>219,32 EUR</t>
+  </si>
+  <si>
+    <t>767,41 EUR</t>
+  </si>
+  <si>
+    <t>3.336,87 EUR</t>
+  </si>
+  <si>
+    <t>166,55 EUR</t>
+  </si>
+  <si>
+    <t>1.086,68 EUR</t>
+  </si>
+  <si>
+    <t>626,10 EUR</t>
+  </si>
+  <si>
+    <t>25-03-2022</t>
+  </si>
+  <si>
+    <t>219,04 EUR</t>
+  </si>
+  <si>
+    <t>1.535,42 EUR</t>
+  </si>
+  <si>
+    <t>24-03-2022</t>
+  </si>
+  <si>
+    <t>991,26 EUR</t>
+  </si>
+  <si>
+    <t>324,87 EUR</t>
+  </si>
+  <si>
+    <t>135,83 EUR</t>
+  </si>
+  <si>
+    <t>1.471,26 EUR</t>
+  </si>
+  <si>
+    <t>330,12 EUR</t>
+  </si>
+  <si>
+    <t>737,80 EUR</t>
+  </si>
+  <si>
+    <t>54,75 EUR</t>
+  </si>
+  <si>
+    <t>668,18 EUR</t>
+  </si>
+  <si>
+    <t>27-03-2022</t>
+  </si>
+  <si>
+    <t>15.063,46 EUR</t>
+  </si>
+  <si>
+    <t>26-03-2022</t>
+  </si>
+  <si>
+    <t>17.009,09 EUR</t>
+  </si>
+  <si>
+    <t>182,25 EUR</t>
+  </si>
+  <si>
+    <t>408,28 EUR</t>
+  </si>
+  <si>
+    <t>1.298,80 EUR</t>
+  </si>
+  <si>
+    <t>1.823,29 EUR</t>
+  </si>
+  <si>
+    <t>14,67 EUR</t>
+  </si>
+  <si>
+    <t>4.666,52 EUR</t>
+  </si>
+  <si>
+    <t>36,45 EUR</t>
+  </si>
+  <si>
+    <t>37,62 EUR</t>
+  </si>
+  <si>
+    <t>109,66 EUR</t>
+  </si>
+  <si>
+    <t>2.990,24 EUR</t>
+  </si>
+  <si>
+    <t>711,22 EUR</t>
+  </si>
+  <si>
+    <t>186,13 EUR</t>
+  </si>
+  <si>
+    <t>6.216,13 EUR</t>
+  </si>
+  <si>
+    <t>47,95 EUR</t>
+  </si>
+  <si>
+    <t>590,50 EUR</t>
+  </si>
+  <si>
+    <t>621,67 EUR</t>
+  </si>
+  <si>
+    <t>28-03-2022</t>
+  </si>
+  <si>
+    <t>10,37 EUR</t>
+  </si>
+  <si>
+    <t>5.337,65 EUR</t>
+  </si>
+  <si>
+    <t>1.275,02 EUR</t>
+  </si>
+  <si>
+    <t>539,24 EUR</t>
+  </si>
+  <si>
+    <t>3.242,49 EUR</t>
+  </si>
+  <si>
+    <t>228,71 EUR</t>
+  </si>
+  <si>
+    <t>46,35 EUR</t>
+  </si>
+  <si>
+    <t>2.982,41 EUR</t>
+  </si>
+  <si>
+    <t>950,66 EUR</t>
+  </si>
+  <si>
+    <t>73,78 EUR</t>
+  </si>
+  <si>
+    <t>47,80 EUR</t>
+  </si>
+  <si>
+    <t>868,97 EUR</t>
+  </si>
+  <si>
+    <t>157,50 EUR</t>
+  </si>
+  <si>
+    <t>181,36 EUR</t>
+  </si>
+  <si>
+    <t>43,20 EUR</t>
+  </si>
+  <si>
+    <t>2.241,46 EUR</t>
+  </si>
+  <si>
+    <t>518,94 EUR</t>
+  </si>
+  <si>
+    <t>558,21 EUR</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +2097,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2 A2 A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="78.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,10 +2184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B63460-ECC4-4CCD-AE42-824298361DB1}">
-  <dimension ref="A1:D885"/>
+  <dimension ref="A1:D1020"/>
   <sheetViews>
-    <sheetView topLeftCell="A853" workbookViewId="0">
-      <selection activeCell="A879" sqref="A879 A879"/>
+    <sheetView topLeftCell="A969" workbookViewId="0">
+      <selection activeCell="A999" sqref="A999 A999"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13956,10 +14226,10 @@
         <v>18035194</v>
       </c>
       <c r="B879" s="3" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D879" s="1">
         <v>23069483</v>
@@ -13970,10 +14240,10 @@
         <v>17971578</v>
       </c>
       <c r="B880" s="3" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D880" s="1">
         <v>23069500</v>
@@ -13984,10 +14254,10 @@
         <v>18035174</v>
       </c>
       <c r="B881" s="3" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D881" s="1">
         <v>23069504</v>
@@ -13998,10 +14268,10 @@
         <v>18035238</v>
       </c>
       <c r="B882" s="3" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="C882" s="1" t="s">
-        <v>6</v>
+        <v>469</v>
       </c>
       <c r="D882" s="1">
         <v>23069507</v>
@@ -14012,10 +14282,10 @@
         <v>17972111</v>
       </c>
       <c r="B883" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D883" s="1">
         <v>23073592</v>
@@ -14026,10 +14296,10 @@
         <v>17972052</v>
       </c>
       <c r="B884" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D884" s="1">
         <v>23073801</v>
@@ -14040,19 +14310,1909 @@
         <v>17972062</v>
       </c>
       <c r="B885" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C885" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D885" s="1">
         <v>23074415</v>
       </c>
     </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A886" s="1">
+        <v>17972711</v>
+      </c>
+      <c r="B886" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C886" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D886" s="1">
+        <v>23076952</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A887" s="1">
+        <v>18036506</v>
+      </c>
+      <c r="B887" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C887" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D887" s="1">
+        <v>23080040</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A888" s="1">
+        <v>17973377</v>
+      </c>
+      <c r="B888" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C888" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D888" s="1">
+        <v>23080042</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A889" s="1">
+        <v>18036565</v>
+      </c>
+      <c r="B889" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C889" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D889" s="1">
+        <v>23080079</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A890" s="1">
+        <v>18037190</v>
+      </c>
+      <c r="B890" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C890" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D890" s="1">
+        <v>23082928</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A891" s="1">
+        <v>18037189</v>
+      </c>
+      <c r="B891" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C891" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D891" s="1">
+        <v>23082931</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A892" s="1">
+        <v>18037188</v>
+      </c>
+      <c r="B892" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C892" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D892" s="1">
+        <v>23082932</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A893" s="1">
+        <v>18037186</v>
+      </c>
+      <c r="B893" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C893" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D893" s="1">
+        <v>23082933</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A894" s="1">
+        <v>18037185</v>
+      </c>
+      <c r="B894" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C894" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D894" s="1">
+        <v>23082934</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A895" s="1">
+        <v>17974429</v>
+      </c>
+      <c r="B895" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C895" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D895" s="1">
+        <v>23082936</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A896" s="1">
+        <v>17974426</v>
+      </c>
+      <c r="B896" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C896" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D896" s="1">
+        <v>23082937</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A897" s="1">
+        <v>18036924</v>
+      </c>
+      <c r="B897" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C897" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D897" s="1">
+        <v>23082938</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A898" s="1">
+        <v>18037232</v>
+      </c>
+      <c r="B898" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C898" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D898" s="1">
+        <v>23082955</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A899" s="1">
+        <v>18037231</v>
+      </c>
+      <c r="B899" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C899" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D899" s="1">
+        <v>23082956</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A900" s="1">
+        <v>18037230</v>
+      </c>
+      <c r="B900" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C900" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D900" s="1">
+        <v>23082957</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A901" s="1">
+        <v>18037229</v>
+      </c>
+      <c r="B901" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C901" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D901" s="1">
+        <v>23082958</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A902" s="1">
+        <v>18037228</v>
+      </c>
+      <c r="B902" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C902" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D902" s="1">
+        <v>23082959</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A903" s="1">
+        <v>18037227</v>
+      </c>
+      <c r="B903" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C903" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D903" s="1">
+        <v>23082960</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A904" s="1">
+        <v>18037226</v>
+      </c>
+      <c r="B904" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C904" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D904" s="1">
+        <v>23082961</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A905" s="1">
+        <v>18037225</v>
+      </c>
+      <c r="B905" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C905" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D905" s="1">
+        <v>23082962</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A906" s="1">
+        <v>18037224</v>
+      </c>
+      <c r="B906" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C906" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D906" s="1">
+        <v>23082964</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A907" s="1">
+        <v>17974452</v>
+      </c>
+      <c r="B907" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C907" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D907" s="1">
+        <v>23082965</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A908" s="1">
+        <v>17974437</v>
+      </c>
+      <c r="B908" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C908" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D908" s="1">
+        <v>23082967</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A909" s="1">
+        <v>18037207</v>
+      </c>
+      <c r="B909" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C909" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D909" s="1">
+        <v>23083021</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A910" s="1">
+        <v>17974448</v>
+      </c>
+      <c r="B910" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C910" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D910" s="1">
+        <v>23083023</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A911" s="1">
+        <v>17974433</v>
+      </c>
+      <c r="B911" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C911" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D911" s="1">
+        <v>23083041</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A912" s="1">
+        <v>18037445</v>
+      </c>
+      <c r="B912" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C912" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D912" s="1">
+        <v>23086924</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A913" s="1">
+        <v>17974751</v>
+      </c>
+      <c r="B913" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C913" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D913" s="1">
+        <v>23086925</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A914" s="1">
+        <v>17974737</v>
+      </c>
+      <c r="B914" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C914" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D914" s="1">
+        <v>23086931</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A915" s="1">
+        <v>18037457</v>
+      </c>
+      <c r="B915" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C915" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D915" s="1">
+        <v>23086935</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A916" s="1">
+        <v>17974757</v>
+      </c>
+      <c r="B916" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C916" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D916" s="1">
+        <v>23086936</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A917" s="1">
+        <v>18037485</v>
+      </c>
+      <c r="B917" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C917" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D917" s="1">
+        <v>23086941</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A918" s="1">
+        <v>18038314</v>
+      </c>
+      <c r="B918" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C918" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D918" s="1">
+        <v>23090660</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A919" s="1">
+        <v>18038313</v>
+      </c>
+      <c r="B919" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C919" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D919" s="1">
+        <v>23090661</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A920" s="1">
+        <v>18038312</v>
+      </c>
+      <c r="B920" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C920" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D920" s="1">
+        <v>23090662</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A921" s="1">
+        <v>17975966</v>
+      </c>
+      <c r="B921" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C921" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D921" s="1">
+        <v>23090663</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A922" s="1">
+        <v>18038050</v>
+      </c>
+      <c r="B922" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C922" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D922" s="1">
+        <v>23090664</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A923" s="1">
+        <v>18037864</v>
+      </c>
+      <c r="B923" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C923" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D923" s="1">
+        <v>23090667</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A924" s="1">
+        <v>17975531</v>
+      </c>
+      <c r="B924" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C924" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D924" s="1">
+        <v>23090668</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A925" s="1">
+        <v>17975394</v>
+      </c>
+      <c r="B925" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C925" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D925" s="1">
+        <v>23090669</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A926" s="1">
+        <v>17975241</v>
+      </c>
+      <c r="B926" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C926" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D926" s="1">
+        <v>23090670</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A927" s="1">
+        <v>18038329</v>
+      </c>
+      <c r="B927" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C927" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D927" s="1">
+        <v>23090676</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A928" s="1">
+        <v>18038328</v>
+      </c>
+      <c r="B928" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C928" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D928" s="1">
+        <v>23090678</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A929" s="1">
+        <v>18038327</v>
+      </c>
+      <c r="B929" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C929" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D929" s="1">
+        <v>23090679</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A930" s="1">
+        <v>17975973</v>
+      </c>
+      <c r="B930" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D930" s="1">
+        <v>23090680</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A931" s="1">
+        <v>18038055</v>
+      </c>
+      <c r="B931" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C931" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D931" s="1">
+        <v>23090681</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A932" s="1">
+        <v>18037877</v>
+      </c>
+      <c r="B932" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C932" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D932" s="1">
+        <v>23090683</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A933" s="1">
+        <v>18037876</v>
+      </c>
+      <c r="B933" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C933" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D933" s="1">
+        <v>23090685</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A934" s="1">
+        <v>18037875</v>
+      </c>
+      <c r="B934" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C934" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D934" s="1">
+        <v>23090687</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A935" s="1">
+        <v>17975248</v>
+      </c>
+      <c r="B935" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C935" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D935" s="1">
+        <v>23090692</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A936" s="1">
+        <v>17975401</v>
+      </c>
+      <c r="B936" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C936" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D936" s="1">
+        <v>23090693</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A937" s="1">
+        <v>17975572</v>
+      </c>
+      <c r="B937" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C937" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D937" s="1">
+        <v>23090694</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A938" s="1">
+        <v>18038322</v>
+      </c>
+      <c r="B938" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C938" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D938" s="1">
+        <v>23090711</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A939" s="1">
+        <v>17975969</v>
+      </c>
+      <c r="B939" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C939" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D939" s="1">
+        <v>23090713</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A940" s="1">
+        <v>18038051</v>
+      </c>
+      <c r="B940" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C940" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D940" s="1">
+        <v>23090715</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A941" s="1">
+        <v>17975397</v>
+      </c>
+      <c r="B941" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C941" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D941" s="1">
+        <v>23090720</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A942" s="1">
+        <v>17975244</v>
+      </c>
+      <c r="B942" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C942" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D942" s="1">
+        <v>23090723</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A943" s="1">
+        <v>18038058</v>
+      </c>
+      <c r="B943" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C943" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D943" s="1">
+        <v>23090733</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A944" s="1">
+        <v>18038057</v>
+      </c>
+      <c r="B944" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C944" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D944" s="1">
+        <v>23090737</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A945" s="1">
+        <v>18038059</v>
+      </c>
+      <c r="B945" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C945" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D945" s="1">
+        <v>23090935</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A946" s="1">
+        <v>17976257</v>
+      </c>
+      <c r="B946" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C946" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D946" s="1">
+        <v>23094204</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A947" s="1">
+        <v>17976265</v>
+      </c>
+      <c r="B947" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C947" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D947" s="1">
+        <v>23094209</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A948" s="1">
+        <v>17977236</v>
+      </c>
+      <c r="B948" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C948" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D948" s="1">
+        <v>23097759</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A949" s="1">
+        <v>17977153</v>
+      </c>
+      <c r="B949" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C949" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D949" s="1">
+        <v>23097792</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A950" s="1">
+        <v>18038945</v>
+      </c>
+      <c r="B950" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C950" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D950" s="1">
+        <v>23097810</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A951" s="1">
+        <v>17977051</v>
+      </c>
+      <c r="B951" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C951" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D951" s="1">
+        <v>23097832</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A952" s="1">
+        <v>17976754</v>
+      </c>
+      <c r="B952" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C952" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D952" s="1">
+        <v>23097862</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A953" s="1">
+        <v>17977160</v>
+      </c>
+      <c r="B953" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C953" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D953" s="1">
+        <v>23097891</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A954" s="1">
+        <v>17977144</v>
+      </c>
+      <c r="B954" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C954" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D954" s="1">
+        <v>23097892</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A955" s="1">
+        <v>18038949</v>
+      </c>
+      <c r="B955" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C955" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D955" s="1">
+        <v>23097912</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A956" s="1">
+        <v>18038948</v>
+      </c>
+      <c r="B956" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C956" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D956" s="1">
+        <v>23097930</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A957" s="1">
+        <v>17976761</v>
+      </c>
+      <c r="B957" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C957" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D957" s="1">
+        <v>23097932</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A958" s="1">
+        <v>18039293</v>
+      </c>
+      <c r="B958" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C958" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D958" s="1">
+        <v>23097963</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A959" s="1">
+        <v>17977156</v>
+      </c>
+      <c r="B959" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C959" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D959" s="1">
+        <v>23097981</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A960" s="1">
+        <v>17977140</v>
+      </c>
+      <c r="B960" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C960" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D960" s="1">
+        <v>23097984</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A961" s="1">
+        <v>17976757</v>
+      </c>
+      <c r="B961" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C961" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D961" s="1">
+        <v>23097986</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A962" s="1">
+        <v>18039300</v>
+      </c>
+      <c r="B962" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C962" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D962" s="1">
+        <v>23098035</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A963" s="1">
+        <v>18038954</v>
+      </c>
+      <c r="B963" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C963" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D963" s="1">
+        <v>23098057</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A964" s="1">
+        <v>18040123</v>
+      </c>
+      <c r="B964" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C964" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D964" s="1">
+        <v>23101928</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A965" s="1">
+        <v>18040122</v>
+      </c>
+      <c r="B965" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C965" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D965" s="1">
+        <v>23101930</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A966" s="1">
+        <v>17978435</v>
+      </c>
+      <c r="B966" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C966" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D966" s="1">
+        <v>23101932</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A967" s="1">
+        <v>18039964</v>
+      </c>
+      <c r="B967" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C967" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D967" s="1">
+        <v>23101933</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A968" s="1">
+        <v>18039962</v>
+      </c>
+      <c r="B968" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C968" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D968" s="1">
+        <v>23101934</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A969" s="1">
+        <v>17978250</v>
+      </c>
+      <c r="B969" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C969" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D969" s="1">
+        <v>23101935</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A970" s="1">
+        <v>17978247</v>
+      </c>
+      <c r="B970" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C970" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D970" s="1">
+        <v>23101936</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A971" s="1">
+        <v>17977846</v>
+      </c>
+      <c r="B971" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C971" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D971" s="1">
+        <v>23101937</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A972" s="1">
+        <v>17978459</v>
+      </c>
+      <c r="B972" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C972" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D972" s="1">
+        <v>23101966</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A973" s="1">
+        <v>18039804</v>
+      </c>
+      <c r="B973" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C973" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D973" s="1">
+        <v>23101967</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A974" s="1">
+        <v>18039791</v>
+      </c>
+      <c r="B974" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C974" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D974" s="1">
+        <v>23101970</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A975" s="1">
+        <v>17977958</v>
+      </c>
+      <c r="B975" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C975" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D975" s="1">
+        <v>23101992</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A976" s="1">
+        <v>17977947</v>
+      </c>
+      <c r="B976" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C976" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D976" s="1">
+        <v>23102030</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A977" s="1">
+        <v>17977932</v>
+      </c>
+      <c r="B977" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C977" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D977" s="1">
+        <v>23102060</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A978" s="1">
+        <v>17977922</v>
+      </c>
+      <c r="B978" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C978" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D978" s="1">
+        <v>23102083</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A979" s="1">
+        <v>18039741</v>
+      </c>
+      <c r="B979" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C979" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D979" s="1">
+        <v>23102771</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A980" s="1">
+        <v>17977799</v>
+      </c>
+      <c r="B980" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C980" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D980" s="1">
+        <v>23102801</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A981" s="1">
+        <v>18040156</v>
+      </c>
+      <c r="B981" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C981" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D981" s="1">
+        <v>23102899</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A982" s="1">
+        <v>17978455</v>
+      </c>
+      <c r="B982" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C982" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D982" s="1">
+        <v>23102922</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A983" s="1">
+        <v>18039801</v>
+      </c>
+      <c r="B983" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C983" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D983" s="1">
+        <v>23102943</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A984" s="1">
+        <v>18039786</v>
+      </c>
+      <c r="B984" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C984" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D984" s="1">
+        <v>23102963</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A985" s="1">
+        <v>17977955</v>
+      </c>
+      <c r="B985" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C985" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D985" s="1">
+        <v>23102987</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A986" s="1">
+        <v>17977943</v>
+      </c>
+      <c r="B986" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C986" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D986" s="1">
+        <v>23102992</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A987" s="1">
+        <v>17977928</v>
+      </c>
+      <c r="B987" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C987" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D987" s="1">
+        <v>23103033</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A988" s="1">
+        <v>18039724</v>
+      </c>
+      <c r="B988" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C988" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D988" s="1">
+        <v>23103052</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A989" s="1">
+        <v>17977755</v>
+      </c>
+      <c r="B989" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C989" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D989" s="1">
+        <v>23103054</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A990" s="1">
+        <v>17978889</v>
+      </c>
+      <c r="B990" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C990" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D990" s="1">
+        <v>23106763</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A991" s="1">
+        <v>18040427</v>
+      </c>
+      <c r="B991" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C991" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D991" s="1">
+        <v>23106764</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A992" s="1">
+        <v>18040304</v>
+      </c>
+      <c r="B992" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C992" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D992" s="1">
+        <v>23106765</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A993" s="1">
+        <v>17978851</v>
+      </c>
+      <c r="B993" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C993" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D993" s="1">
+        <v>23106766</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A994" s="1">
+        <v>17978763</v>
+      </c>
+      <c r="B994" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C994" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D994" s="1">
+        <v>23106767</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A995" s="1">
+        <v>18040447</v>
+      </c>
+      <c r="B995" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C995" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D995" s="1">
+        <v>23106781</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A996" s="1">
+        <v>17978848</v>
+      </c>
+      <c r="B996" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C996" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D996" s="1">
+        <v>23106786</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A997" s="1">
+        <v>18040453</v>
+      </c>
+      <c r="B997" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C997" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D997" s="1">
+        <v>23106797</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A998" s="1">
+        <v>18040452</v>
+      </c>
+      <c r="B998" s="3">
+        <v>44649</v>
+      </c>
+      <c r="C998" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D998" s="1">
+        <v>23106878</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A999" s="1">
+        <v>18040680</v>
+      </c>
+      <c r="B999" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C999" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D999" s="1">
+        <v>23107006</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1000" s="1">
+        <v>17979115</v>
+      </c>
+      <c r="B1000" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1000" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1000" s="1">
+        <v>23107012</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1001" s="1">
+        <v>17979112</v>
+      </c>
+      <c r="B1001" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1001" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1001" s="1">
+        <v>23107032</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1002" s="1">
+        <v>18040318</v>
+      </c>
+      <c r="B1002" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C1002" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1002" s="1">
+        <v>23107052</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1003" s="1">
+        <v>18041181</v>
+      </c>
+      <c r="B1003" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1003" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1003" s="1">
+        <v>23111521</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1004" s="1">
+        <v>18041180</v>
+      </c>
+      <c r="B1004" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1004" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1004" s="1">
+        <v>23111522</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1005" s="1">
+        <v>18041179</v>
+      </c>
+      <c r="B1005" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1005" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1005" s="1">
+        <v>23111523</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1006" s="1">
+        <v>17979982</v>
+      </c>
+      <c r="B1006" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1006" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D1006" s="1">
+        <v>23111529</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1007" s="1">
+        <v>17979979</v>
+      </c>
+      <c r="B1007" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1007" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1007" s="1">
+        <v>23111530</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1008" s="1">
+        <v>17979651</v>
+      </c>
+      <c r="B1008" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1008" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1008" s="1">
+        <v>23111531</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1009" s="1">
+        <v>17979650</v>
+      </c>
+      <c r="B1009" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1009" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1009" s="1">
+        <v>23111532</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1010" s="1">
+        <v>18041069</v>
+      </c>
+      <c r="B1010" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1010" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1010" s="1">
+        <v>23111543</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1011" s="1">
+        <v>18041045</v>
+      </c>
+      <c r="B1011" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1011" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1011" s="1">
+        <v>23111544</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1012" s="1">
+        <v>17979756</v>
+      </c>
+      <c r="B1012" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1012" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D1012" s="1">
+        <v>23111546</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1013" s="1">
+        <v>17979746</v>
+      </c>
+      <c r="B1013" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1013" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1013" s="1">
+        <v>23111549</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1014" s="1">
+        <v>17979639</v>
+      </c>
+      <c r="B1014" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1014" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1014" s="1">
+        <v>23111570</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1015" s="1">
+        <v>17979793</v>
+      </c>
+      <c r="B1015" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1015" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1015" s="1">
+        <v>23111622</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1016" s="1">
+        <v>17979752</v>
+      </c>
+      <c r="B1016" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1016" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1016" s="1">
+        <v>23111625</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1017" s="1">
+        <v>17979744</v>
+      </c>
+      <c r="B1017" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1017" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1017" s="1">
+        <v>23111644</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1018" s="1">
+        <v>17979657</v>
+      </c>
+      <c r="B1018" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1018" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1018" s="1">
+        <v>23111661</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1019" s="1">
+        <v>18041071</v>
+      </c>
+      <c r="B1019" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1019" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1019" s="1">
+        <v>23111703</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1020" s="1">
+        <v>18041072</v>
+      </c>
+      <c r="B1020" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1020" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1020" s="1">
+        <v>23111726</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D629" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D629">
-      <sortCondition ref="B1:B629"/>
+  <autoFilter ref="A1:D997" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D997">
+      <sortCondition ref="B1:B997"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
